--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3041B5B-0C87-41A0-A94F-AB740B9861FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC838D99-8FD3-45CF-8442-6581ACC41BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Freshman Profile_SAT ACT" sheetId="2" r:id="rId2"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Answer</t>
   </si>
@@ -110,6 +110,123 @@
   </si>
   <si>
     <t>not considerd</t>
+  </si>
+  <si>
+    <t>How many student submitted ACT</t>
+  </si>
+  <si>
+    <t>How many student submitted SAT</t>
+  </si>
+  <si>
+    <t>What is the percent of students submitting ACT</t>
+  </si>
+  <si>
+    <t>What is the percent of students submitting SAT</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT composite</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT writing</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT english</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT math</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT composite</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT essay</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT math</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT composite</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT writing</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT english</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT math</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT composite</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT essay</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT math</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT composite</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT english</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT writing</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT composite</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT essay</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for  SAT evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT math</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT math</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT composite</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT math</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT composite</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT math</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT english</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT essay</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT writing</t>
+  </si>
+  <si>
+    <t>65.9%</t>
+  </si>
+  <si>
+    <t>55.7%</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -157,12 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +564,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,14 +741,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC838D99-8FD3-45CF-8442-6581ACC41BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B96AE-4CB8-4219-B723-63BA94C23C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,13 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +563,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,21 +742,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -765,7 +764,7 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>350</v>
       </c>
     </row>
@@ -773,7 +772,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>296</v>
       </c>
     </row>
@@ -781,7 +780,7 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -789,7 +788,7 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -797,7 +796,7 @@
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1270</v>
       </c>
     </row>
@@ -805,7 +804,7 @@
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>610</v>
       </c>
     </row>
@@ -813,7 +812,7 @@
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>650</v>
       </c>
     </row>
@@ -821,7 +820,7 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -829,7 +828,7 @@
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1355</v>
       </c>
     </row>
@@ -837,7 +836,7 @@
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>650</v>
       </c>
     </row>
@@ -845,7 +844,7 @@
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>700</v>
       </c>
     </row>
@@ -853,7 +852,7 @@
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -861,7 +860,7 @@
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1440</v>
       </c>
     </row>
@@ -869,7 +868,7 @@
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>700</v>
       </c>
     </row>
@@ -877,7 +876,7 @@
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>760</v>
       </c>
     </row>
@@ -885,7 +884,7 @@
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1352</v>
       </c>
     </row>
@@ -893,7 +892,7 @@
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1352</v>
       </c>
     </row>
@@ -901,7 +900,7 @@
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>652</v>
       </c>
     </row>
@@ -909,7 +908,7 @@
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>700</v>
       </c>
     </row>
@@ -917,7 +916,7 @@
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -925,7 +924,7 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>27</v>
       </c>
     </row>
@@ -933,7 +932,7 @@
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>28</v>
       </c>
     </row>
@@ -941,7 +940,7 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>26</v>
       </c>
     </row>
@@ -949,7 +948,7 @@
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -957,7 +956,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>31</v>
       </c>
     </row>
@@ -965,7 +964,7 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>31</v>
       </c>
     </row>
@@ -973,7 +972,7 @@
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>31.5</v>
       </c>
     </row>
@@ -981,7 +980,7 @@
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -989,7 +988,7 @@
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>33</v>
       </c>
     </row>
@@ -997,7 +996,7 @@
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>34</v>
       </c>
     </row>
@@ -1005,7 +1004,7 @@
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>35</v>
       </c>
     </row>
@@ -1013,7 +1012,7 @@
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1021,7 +1020,7 @@
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>30</v>
       </c>
     </row>
@@ -1029,7 +1028,7 @@
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>30</v>
       </c>
     </row>
@@ -1037,7 +1036,7 @@
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>30</v>
       </c>
     </row>
@@ -1045,7 +1044,7 @@
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
     </row>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B96AE-4CB8-4219-B723-63BA94C23C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC629A-82E1-4906-97E2-27F73F6301C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
     <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
+    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId3"/>
+    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>Answer</t>
   </si>
@@ -227,6 +229,243 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 200-299 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 200-299 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 300-399 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 300-399 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 700-800 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 700-800 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 600-699 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 600-699 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 500-599 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 500-599 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 400-499 range for sat evidence-based reading and writing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 400-499 range for sat math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 1400-1600 range for sat composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 1200-1399 range for sat composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 1000-1199 range for sat composite    </t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 800-999 range for sat composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 600-799 range for sat composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with sat score in the 400-599 range for sat composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 30-36 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 30-36 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 30-36 for act math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 24-29 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 24-29 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 24-29 for act math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 18-23 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 18-23 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 18-23 for act math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 12-17 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 12-17 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 12-17 for act math </t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 6-11 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 6-11 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 6-11 for act math</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range below 6 for act composite</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range below 6 for act english</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range below 6 for act math</t>
+  </si>
+  <si>
+    <t>What is the percentage of students in the bottom half of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students in the bottom quarter of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students in the top half of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students in the top quarter of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students in the top tenth of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students who submitted high school class rank?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 4.00?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 3.75 and 3.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 3.50 and 3.74?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 3.25 and 3.49?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 3.00 and 3.24?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 2.50 and 2.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 2.00 and 2.49?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between 1.00 and 1.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of students with gpa between below 1.00?</t>
+  </si>
+  <si>
+    <t>What is the average high school gpa for students who submitted gpa?</t>
+  </si>
+  <si>
+    <t>60.1% (303/504)</t>
+  </si>
+  <si>
+    <t>22.6% (114/504)</t>
+  </si>
+  <si>
+    <t>11.5% (58/504)</t>
+  </si>
+  <si>
+    <t>4.4% (22/504)</t>
+  </si>
+  <si>
+    <t>1.2% (6/504)</t>
+  </si>
+  <si>
+    <t>0.2% (1/504)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the percentage of students who submitted gpa?</t>
+  </si>
+  <si>
+    <t>94.9 % (504/531)</t>
+  </si>
+  <si>
+    <t>27.1%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>38.3%</t>
+  </si>
+  <si>
+    <t>18.9%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>39.7%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
+    <t>63.2%</t>
+  </si>
+  <si>
+    <t>60.1%</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>30.7%</t>
+  </si>
+  <si>
+    <t>29.1%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
+  </si>
+  <si>
+    <t>6.1%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
   </si>
 </sst>
 </file>
@@ -274,12 +513,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,21 +984,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -764,7 +1006,7 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>350</v>
       </c>
     </row>
@@ -772,7 +1014,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>296</v>
       </c>
     </row>
@@ -780,7 +1022,7 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -788,7 +1030,7 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -796,7 +1038,7 @@
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1270</v>
       </c>
     </row>
@@ -804,7 +1046,7 @@
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>610</v>
       </c>
     </row>
@@ -812,7 +1054,7 @@
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>650</v>
       </c>
     </row>
@@ -820,7 +1062,7 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -828,7 +1070,7 @@
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>1355</v>
       </c>
     </row>
@@ -836,7 +1078,7 @@
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>650</v>
       </c>
     </row>
@@ -844,7 +1086,7 @@
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>700</v>
       </c>
     </row>
@@ -852,7 +1094,7 @@
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -860,7 +1102,7 @@
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1440</v>
       </c>
     </row>
@@ -868,7 +1110,7 @@
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>700</v>
       </c>
     </row>
@@ -876,7 +1118,7 @@
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>760</v>
       </c>
     </row>
@@ -884,7 +1126,7 @@
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1352</v>
       </c>
     </row>
@@ -892,7 +1134,7 @@
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1352</v>
       </c>
     </row>
@@ -900,7 +1142,7 @@
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>652</v>
       </c>
     </row>
@@ -908,7 +1150,7 @@
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>700</v>
       </c>
     </row>
@@ -916,7 +1158,7 @@
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -924,7 +1166,7 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>27</v>
       </c>
     </row>
@@ -932,7 +1174,7 @@
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>28</v>
       </c>
     </row>
@@ -940,7 +1182,7 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>26</v>
       </c>
     </row>
@@ -948,7 +1190,7 @@
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -956,7 +1198,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>31</v>
       </c>
     </row>
@@ -964,7 +1206,7 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>31</v>
       </c>
     </row>
@@ -972,7 +1214,7 @@
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>31.5</v>
       </c>
     </row>
@@ -980,7 +1222,7 @@
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -988,7 +1230,7 @@
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>33</v>
       </c>
     </row>
@@ -996,7 +1238,7 @@
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>34</v>
       </c>
     </row>
@@ -1004,7 +1246,7 @@
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>35</v>
       </c>
     </row>
@@ -1012,7 +1254,7 @@
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1020,7 +1262,7 @@
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1028,7 +1270,7 @@
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1036,7 +1278,7 @@
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1044,7 +1286,7 @@
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1055,4 +1297,487 @@
     <ignoredError sqref="B4:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC629A-82E1-4906-97E2-27F73F6301C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC7DD3-A13A-44FF-BD7A-C1068B52432F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
     <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
     <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId3"/>
     <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId4"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId5"/>
+    <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
   <si>
     <t>Answer</t>
   </si>
@@ -466,6 +468,156 @@
   </si>
   <si>
     <t>0.7%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>May transfer students earn advanced standing credit by transferring credits earned from course work completed at other colleges/universities?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman enroll transfer students</t>
+  </si>
+  <si>
+    <t>How many male transfer applicants applied?</t>
+  </si>
+  <si>
+    <t>How many male transfer applicants are admitted</t>
+  </si>
+  <si>
+    <t>How many male transfer applicants are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female transfer applicants applied?</t>
+  </si>
+  <si>
+    <t>How many female transfer applicants are admitted</t>
+  </si>
+  <si>
+    <t>How many female transfer applicants are enrolled?</t>
+  </si>
+  <si>
+    <t>At which term may transfer students enroll</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require high school transcript to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require college transcript to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require essay to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require interview to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require standardized test score to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman require statement of good standing to apply for transfer admission?</t>
+  </si>
+  <si>
+    <t>What is the minimum high school grade point average required  of transfer applicants?</t>
+  </si>
+  <si>
+    <t>What is the minimum college grade point average required of transfer applicants?</t>
+  </si>
+  <si>
+    <t>When does Rose-Hulman review transfer student applications?</t>
+  </si>
+  <si>
+    <t>Does an open admission policy apply to transfer students?</t>
+  </si>
+  <si>
+    <t>Are there any additional requirements for transfer admission?</t>
+  </si>
+  <si>
+    <t>What is the lowest grade earn for any course that maybe transferred for credit</t>
+  </si>
+  <si>
+    <t>What is the minimum number of credits that transfer students must complete to earn a associates degree</t>
+  </si>
+  <si>
+    <t>What is the minimum number of credits that transfer students must complete to earn a bachelor degree</t>
+  </si>
+  <si>
+    <t>Are there any additional transfer credit policies?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does enroll transfer students</t>
+  </si>
+  <si>
+    <t>Students may earn advanced standing credit by transferring credit earned from course work completed at other college/university</t>
+  </si>
+  <si>
+    <t>Transfer students may enroll during the fall term.</t>
+  </si>
+  <si>
+    <t>No, transfer students do not need to have minimum number of credit completed</t>
+  </si>
+  <si>
+    <t>Does a transfer applicant need to have minimum number of credits completed or else they must apply as an entering freshman? If so what is the minimum credit and the unit of measure?</t>
+  </si>
+  <si>
+    <t>Essays or personal statement is required for transfer admission.</t>
+  </si>
+  <si>
+    <t>College transcript is required  for transfer admission.</t>
+  </si>
+  <si>
+    <t>High school transcript is recommended of some for transfer admission.</t>
+  </si>
+  <si>
+    <t>Interview is recommended of some to apply for transfer admission</t>
+  </si>
+  <si>
+    <t>Standarized test score is not required</t>
+  </si>
+  <si>
+    <t>Statement of good standing from prior institutions is recommended of all transfer applicants.</t>
+  </si>
+  <si>
+    <t>There is no minimum high school gpa requirement for transfer admission</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Rose-Hulman review transfer applications on a rolling basis (year round).</t>
+  </si>
+  <si>
+    <t>No, open admission policy does not apply to students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students must have a semester of calculus, as well as calculus-based physics and chemistry. </t>
+  </si>
+  <si>
+    <t>The lowest grade earned from any course that may be transferred for credit is C or 2.0</t>
+  </si>
+  <si>
+    <t>What is the maximum number of credit that maybe transferred from a 2-year institution</t>
+  </si>
+  <si>
+    <t>What is the maximum number of credit that maybe transferred from a 4-year institution</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not offer associate degree</t>
+  </si>
+  <si>
+    <t>Credits to be transferred are reviewed by each department and the final decision to award credit is up to the appropriate department chairs.</t>
   </si>
 </sst>
 </file>
@@ -513,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -522,6 +674,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +966,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,7 +1146,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1465,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1644,48 +1805,48 @@
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.66</v>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.91</v>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.99</v>
+      <c r="B4" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.01</v>
+      <c r="B5" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.46</v>
+      <c r="B7" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1740,24 +1901,24 @@
       <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
+      <c r="B14" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
+      <c r="B15" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
+      <c r="B16" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,6 +1935,280 @@
       </c>
       <c r="B18" s="5" t="s">
         <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF4F714-5A64-4B0A-90E7-28D299FDF6BE}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="96.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B96AE-4CB8-4219-B723-63BA94C23C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333D3C2-8999-42CC-844D-B9B11DF41EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
     <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
+    <sheet name="Cohort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Answer</t>
   </si>
@@ -227,6 +228,102 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many of those students in the initial cohort were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many of those students in the initial cohort did not receive either a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>How many exempted student were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many of exempted students were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many of exempted students did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort completed the program within four years and were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program within four years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program within four years but did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>How many students  in the initial cohort who completed the program in between four and five years were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students  in the initial cohort who completed the program in between four and five years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program in between four and five years did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -274,12 +371,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,4 +1159,176 @@
     <ignoredError sqref="B4:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7EDFB1-7BAA-4D26-8D1B-C0BC8B97204B}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="118.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC7DD3-A13A-44FF-BD7A-C1068B52432F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6AD3E-4739-4C29-8AD7-8D49CE4C6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,6 @@
     <t>Transfer students may enroll during the fall term.</t>
   </si>
   <si>
-    <t>No, transfer students do not need to have minimum number of credit completed</t>
-  </si>
-  <si>
     <t>Does a transfer applicant need to have minimum number of credits completed or else they must apply as an entering freshman? If so what is the minimum credit and the unit of measure?</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>Credits to be transferred are reviewed by each department and the final decision to award credit is up to the appropriate department chairs.</t>
+  </si>
+  <si>
+    <t>Transfer students do not need to have minimum number of credit completed</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2058,7 +2058,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
         <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
         <v>163</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2082,7 +2082,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2090,7 +2090,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>166</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +2106,7 @@
         <v>167</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2114,7 +2114,7 @@
         <v>168</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2122,7 @@
         <v>169</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2130,7 +2130,7 @@
         <v>170</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2168,12 +2168,12 @@
         <v>171</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="6">
         <v>90</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="6">
         <v>90</v>
@@ -2192,7 +2192,7 @@
         <v>172</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6AD3E-4739-4C29-8AD7-8D49CE4C6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6442E-2FE4-418A-B755-43B1CF418B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId4"/>
     <sheet name="Transfer Admission_General" sheetId="5" r:id="rId5"/>
     <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId6"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId7"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
   <si>
     <t>Answer</t>
   </si>
@@ -618,6 +620,129 @@
   </si>
   <si>
     <t>Transfer students do not need to have minimum number of credit completed</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time freshman students who are out of state?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time undergraduate students who are out of state?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time undergraduate students who joined fraternities?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time students who joined fraternities?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time freshman students who joined sororities?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time undergraduate students who joined sororities</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time freshman students who live in college owned, operated, or affiliated housing?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time undergraduate students who live in college owned, operated, or affiliated housing?</t>
+  </si>
+  <si>
+    <t>70.7%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>22.9%</t>
+  </si>
+  <si>
+    <t>32.5%</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>57.8%</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>42.2%</t>
+  </si>
+  <si>
+    <t>35.5%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time freshman students who live off campus or commute?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time undergraduate students who live off campus or commute?</t>
+  </si>
+  <si>
+    <t>What is the percentage of full-time and part-time first year first time freshman students who are age 25 and older?</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>What is the average age of both full-time and part-time first year first time freshman students</t>
+  </si>
+  <si>
+    <t>What is percentage of full-time and part-time undergraduate students who are age 25 and older</t>
+  </si>
+  <si>
+    <t>What is the average age of only full-time first year first time freshman students?</t>
+  </si>
+  <si>
+    <t>What is the average age of only full-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the average age of both full-time and part-time undergraduate students</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>String Answer?</t>
+  </si>
+  <si>
+    <t>The average age of full-time undergraduate student is 19.7</t>
+  </si>
+  <si>
+    <t>The average age of full-time freshman students is 18.1</t>
+  </si>
+  <si>
+    <t>The average age of all (full-time and part-time) freshman students is 18.1</t>
+  </si>
+  <si>
+    <t>The average age of all (full-time and part-time) undergraduate students is 18.1</t>
+  </si>
+  <si>
+    <t>What extracurricular activities does Rose-Hulman offer?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman offer army rotc ?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman offer naval rotc ?</t>
+  </si>
+  <si>
+    <t>What type of college-owned, -operated, or -affiliated housing is available at Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>The activities that Rose-Hulman offers include the following: campus ministries, choral groups, concert bands, dance, drama/theater, international student organizations, jazz band, music ensembles, musical theater, pep band, radio station, student governement, student newspaper, and symphony orchestra</t>
+  </si>
+  <si>
+    <t>Army ROTC is offerd on campus</t>
+  </si>
+  <si>
+    <t>Naval ROTC is not offered at Rose-Hulman</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman offer air force rotc ?</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2146,20 +2271,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2292,7 @@
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2175,7 +2300,7 @@
       <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2183,7 +2308,7 @@
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2191,7 +2316,7 @@
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2199,7 +2324,7 @@
       <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>45</v>
       </c>
     </row>
@@ -2207,7 +2332,7 @@
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2215,4 +2340,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="131.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6442E-2FE4-418A-B755-43B1CF418B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8B1B5-AA84-4D91-8410-9773B102D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="239">
   <si>
     <t>Answer</t>
   </si>
@@ -322,9 +322,6 @@
     <t>What is the percentage of freshman students with act score in the range 12-17 for act english</t>
   </si>
   <si>
-    <t>What is the percentage of freshman students with act score in the range 12-17 for act math </t>
-  </si>
-  <si>
     <t>What is the percentage of freshman students with act score in the range 6-11 for act composite</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>Does Rose-Hulman offer naval rotc ?</t>
   </si>
   <si>
-    <t>What type of college-owned, -operated, or -affiliated housing is available at Rose-Hulman?</t>
-  </si>
-  <si>
     <t>The activities that Rose-Hulman offers include the following: campus ministries, choral groups, concert bands, dance, drama/theater, international student organizations, jazz band, music ensembles, musical theater, pep band, radio station, student governement, student newspaper, and symphony orchestra</t>
   </si>
   <si>
@@ -743,6 +737,18 @@
   </si>
   <si>
     <t>Does Rose-Hulman offer air force rotc ?</t>
+  </si>
+  <si>
+    <t>Air Force ROTC is offered on campus</t>
+  </si>
+  <si>
+    <t>The type of college-owned, -operated, or -affiliated housing available include the following: coed dorms, men's dorms, apartment for single students, fraternity/sorority housing, and theme housing</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act score in the range 12-17 for act math</t>
+  </si>
+  <si>
+    <t>What type of college owned, operated, or affiliated housing is available at Rose-Hulman?</t>
   </si>
 </sst>
 </file>
@@ -1268,27 +1274,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1304,23 +1314,23 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1354,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1410,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1579,9 +1589,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4:B5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1589,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1619,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1627,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1635,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1636,7 +1643,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1644,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1659,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1667,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1675,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1676,7 +1683,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1684,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1699,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1700,7 +1707,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1708,7 +1715,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1716,7 +1723,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1724,7 +1731,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1732,7 +1739,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1740,7 +1747,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1748,7 +1755,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1756,7 +1763,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1764,7 +1771,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1772,7 +1779,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1780,7 +1787,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1788,7 +1795,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1796,7 +1803,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1804,7 +1811,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1812,7 +1819,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1820,7 +1827,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1828,7 +1835,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1836,63 +1843,63 @@
         <v>95</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1928,127 +1935,127 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="5">
         <v>4.0199999999999996</v>
@@ -2056,10 +2063,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2072,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,23 +2099,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="7">
         <v>59</v>
@@ -2116,7 +2123,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="7">
         <v>30</v>
@@ -2124,7 +2131,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="7">
         <v>9</v>
@@ -2132,7 +2139,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="7">
         <v>23</v>
@@ -2140,7 +2147,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="7">
         <v>13</v>
@@ -2148,7 +2155,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -2156,106 +2163,106 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2290,15 +2297,15 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="7">
         <v>90</v>
@@ -2306,7 +2313,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="7">
         <v>90</v>
@@ -2314,15 +2321,15 @@
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="7">
         <v>45</v>
@@ -2330,10 +2337,10 @@
     </row>
     <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2365,147 +2372,147 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
         <v>222</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2515,58 +2522,83 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.21875" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>232</v>
+      <c r="C6" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8B1B5-AA84-4D91-8410-9773B102D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DB9BA-5659-45FF-9438-E02D85608045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1590" windowWidth="28800" windowHeight="15435" tabRatio="922" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId6"/>
     <sheet name="Student Life_Categories" sheetId="7" r:id="rId7"/>
     <sheet name="Student Life_Offered" sheetId="8" r:id="rId8"/>
+    <sheet name="Student Life_Academic Offering" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
   <si>
     <t>Answer</t>
   </si>
@@ -749,6 +750,18 @@
   </si>
   <si>
     <t>What type of college owned, operated, or affiliated housing is available at Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>What special study program options does Rose-Hulman offer?</t>
+  </si>
+  <si>
+    <t>The special study options that Rose-Hulman offers include the following:Accelerate program, Cooperative education program,Cross-registration, Double major, Dual enrollment, English as a Second Language (ESL),Exchange student program (domestic), Independent study and Study abroad</t>
+  </si>
+  <si>
+    <t>What areas in which all or most students are required to complete some course work prior to graduation?</t>
+  </si>
+  <si>
+    <t>The areas that Rose-Hulman requires students to complete before gratuate are Humanities, Computer literacy, Mathematics,English (including composition),Sciences (biological or physical),Social science</t>
   </si>
 </sst>
 </file>
@@ -816,7 +829,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1100,13 +1113,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1276,18 +1289,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1346,7 +1359,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1423,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1442,7 +1455,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1498,7 +1511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1506,7 +1519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1527,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1578,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -1600,13 +1613,13 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -1638,7 +1651,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1646,7 +1659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -1678,7 +1691,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1710,7 +1723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -1766,7 +1779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -1774,7 +1787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -1806,7 +1819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -1822,7 +1835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
@@ -1854,7 +1867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1862,7 +1875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -1886,7 +1899,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -1919,13 +1932,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -1941,7 +1954,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -1949,7 +1962,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -1957,7 +1970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1965,7 +1978,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -1989,7 +2002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -2005,7 +2018,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -2021,7 +2034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -2037,7 +2050,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
@@ -2045,7 +2058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -2061,7 +2074,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -2083,13 +2096,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -2105,7 +2118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>152</v>
       </c>
@@ -2121,7 +2134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>153</v>
       </c>
@@ -2129,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>154</v>
       </c>
@@ -2137,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>155</v>
       </c>
@@ -2145,7 +2158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>157</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>158</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>177</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>160</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>162</v>
       </c>
@@ -2209,7 +2222,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>163</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>165</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
@@ -2241,7 +2254,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>167</v>
       </c>
@@ -2249,7 +2262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -2257,7 +2270,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>169</v>
       </c>
@@ -2265,7 +2278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
   </sheetData>
@@ -2281,13 +2294,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>190</v>
       </c>
@@ -2311,7 +2324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>191</v>
       </c>
@@ -2319,7 +2332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -2357,14 +2370,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="131.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2388,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>198</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -2415,7 +2428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>202</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -2455,7 +2468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
@@ -2463,7 +2476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>218</v>
       </c>
@@ -2471,7 +2484,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>219</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>220</v>
       </c>
@@ -2493,7 +2506,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>217</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>221</v>
       </c>
@@ -2525,17 +2538,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +2559,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>230</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>234</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -2604,4 +2617,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7C507-F0F5-42C4-B34F-1CF23A702EFA}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC629A-82E1-4906-97E2-27F73F6301C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCDFA5F-5CBC-419E-BED9-8A21F0A1C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
-    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId3"/>
-    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId4"/>
+    <sheet name="Admission_Policies" sheetId="5" r:id="rId2"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId3"/>
+    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId4"/>
+    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="170">
   <si>
     <t>Answer</t>
   </si>
@@ -466,6 +467,79 @@
   </si>
   <si>
     <t>0.7%</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman have an application fee, if so how much?</t>
+  </si>
+  <si>
+    <t>Can application fee be waived for applicants with financial need?</t>
+  </si>
+  <si>
+    <t>Is there an application fee for online applicants?</t>
+  </si>
+  <si>
+    <t>Are students accepted for terms other than the fall?</t>
+  </si>
+  <si>
+    <t>When are notification of admission decisions to students sent?</t>
+  </si>
+  <si>
+    <t>What is the reply policy for applicants </t>
+  </si>
+  <si>
+    <t>Does rose-hulman allow students to postpone enrollment after admission?</t>
+  </si>
+  <si>
+    <t>Does rose-hulman allow early admission of high school students?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s early decision policy?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s early action policy?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman have an application fee of 60 dollars</t>
+  </si>
+  <si>
+    <t>Application can be waived for applicants with financial need</t>
+  </si>
+  <si>
+    <t>The application fee for online applicants is the same as the normal application fee of 60 dollars.</t>
+  </si>
+  <si>
+    <t>When is the application closing date and priority date for admissions?</t>
+  </si>
+  <si>
+    <t>Complete sentence?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Students can be accepted for terms other than the fall with special permission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicants must reply to admission decision by May 1. The deadline for housing deposit is not available. </t>
+  </si>
+  <si>
+    <t>Students can postpone their enrollment after admission</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not allow high school students to enroll as full-time, first-time,
+first-year (freshman) students one year or more before high school graduation</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not allow early decision</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does have early action. The early action closing date is November 1st and early action notification date is December 15th. Students can still apply to other early action programs after applying for early action at Rose-Hulman.</t>
+  </si>
+  <si>
+    <t>Admission decision for early decision is sent by December 15th. Regular decision is sent by March 15th.</t>
+  </si>
+  <si>
+    <t>Application closing and priority date for admissions is februrary 1st for regular decision and November 1st for early action</t>
   </si>
 </sst>
 </file>
@@ -513,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -522,6 +596,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,11 +1058,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE39466-3C06-4B39-9BCF-5B42D00DC23D}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -1618,12 +1848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DB9BA-5659-45FF-9438-E02D85608045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0DF82-F195-4DAB-9634-0D4ED11E4D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1590" windowWidth="28800" windowHeight="15435" tabRatio="922" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId2"/>
-    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId3"/>
-    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId4"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId5"/>
-    <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId6"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId7"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId8"/>
-    <sheet name="Student Life_Academic Offering" sheetId="9" r:id="rId9"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId2"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId3"/>
+    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId4"/>
+    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId5"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId6"/>
+    <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId7"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId8"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="262">
   <si>
     <t>Answer</t>
   </si>
@@ -752,16 +752,74 @@
     <t>What type of college owned, operated, or affiliated housing is available at Rose-Hulman?</t>
   </si>
   <si>
-    <t>What special study program options does Rose-Hulman offer?</t>
-  </si>
-  <si>
-    <t>The special study options that Rose-Hulman offers include the following:Accelerate program, Cooperative education program,Cross-registration, Double major, Dual enrollment, English as a Second Language (ESL),Exchange student program (domestic), Independent study and Study abroad</t>
-  </si>
-  <si>
-    <t>What areas in which all or most students are required to complete some course work prior to graduation?</t>
-  </si>
-  <si>
-    <t>The areas that Rose-Hulman requires students to complete before gratuate are Humanities, Computer literacy, Mathematics,English (including composition),Sciences (biological or physical),Social science</t>
+    <t>Complete sentence?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman have an application fee, if so how much?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman have an application fee of 60 dollars</t>
+  </si>
+  <si>
+    <t>Can application fee be waived for applicants with financial need?</t>
+  </si>
+  <si>
+    <t>Application can be waived for applicants with financial need</t>
+  </si>
+  <si>
+    <t>Is there an application fee for online applicants?</t>
+  </si>
+  <si>
+    <t>The application fee for online applicants is the same as the normal application fee of 60 dollars.</t>
+  </si>
+  <si>
+    <t>When is the application closing date and priority date for admissions?</t>
+  </si>
+  <si>
+    <t>Application closing and priority date for admissions is februrary 1st for regular decision and November 1st for early action</t>
+  </si>
+  <si>
+    <t>Are students accepted for terms other than the fall?</t>
+  </si>
+  <si>
+    <t>Students can be accepted for terms other than the fall with special permission.</t>
+  </si>
+  <si>
+    <t>When are notification of admission decisions to students sent?</t>
+  </si>
+  <si>
+    <t>Admission decision for early decision is sent by December 15th. Regular decision is sent by March 15th.</t>
+  </si>
+  <si>
+    <t>What is the reply policy for applicants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicants must reply to admission decision by May 1. The deadline for housing deposit is not available. </t>
+  </si>
+  <si>
+    <t>Does rose-hulman allow students to postpone enrollment after admission?</t>
+  </si>
+  <si>
+    <t>Students can postpone their enrollment after admission</t>
+  </si>
+  <si>
+    <t>Does rose-hulman allow early admission of high school students?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not allow high school students to enroll as full-time, first-time,
+first-year (freshman) students one year or more before high school graduation</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s early decision policy?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not allow early decision</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s early action policy?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does have early action. The early action closing date is November 1st and early action notification date is December 15th. Students can still apply to other early action programs after applying for early action at Rose-Hulman.</t>
   </si>
 </sst>
 </file>
@@ -829,7 +887,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1113,13 +1171,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,21 +1344,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="58.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1520,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1528,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1536,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1560,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1568,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1576,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1375,7 +1584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1592,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1391,7 +1600,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1399,7 +1608,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1407,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1624,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1423,7 +1632,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1431,7 +1640,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1439,7 +1648,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1447,7 +1656,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1455,7 +1664,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1463,7 +1672,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1471,7 +1680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1479,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1503,7 +1712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1511,7 +1720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1519,7 +1728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1527,7 +1736,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1535,7 +1744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1543,7 +1752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1551,7 +1760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1559,7 +1768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1575,7 +1784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1591,7 +1800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -1613,13 +1822,13 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1635,7 +1844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1643,7 +1852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -1651,7 +1860,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1659,7 +1868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1667,7 +1876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1675,7 +1884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1683,7 +1892,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -1691,7 +1900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1699,7 +1908,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1707,7 +1916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1715,7 +1924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1723,7 +1932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1731,7 +1940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -1739,7 +1948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -1747,7 +1956,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1755,7 +1964,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1972,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -1771,7 +1980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -1779,7 +1988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -1787,7 +1996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -1795,7 +2004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -1803,7 +2012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -1811,7 +2020,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -1819,7 +2028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1827,7 +2036,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -1835,7 +2044,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -1843,7 +2052,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1851,7 +2060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -1859,7 +2068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
@@ -1867,7 +2076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1875,7 +2084,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -1883,7 +2092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1891,7 +2100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -1899,7 +2108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -1907,7 +2116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -1924,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -1932,13 +2141,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -1954,7 +2163,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -1962,7 +2171,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -1970,7 +2179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1978,7 +2187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1986,7 +2195,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1994,7 +2203,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2002,7 +2211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2010,7 +2219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -2018,7 +2227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -2026,7 +2235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -2034,7 +2243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -2042,7 +2251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -2050,7 +2259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
@@ -2058,7 +2267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
@@ -2066,7 +2275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -2074,7 +2283,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -2088,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -2096,13 +2305,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -2118,7 +2327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
@@ -2126,7 +2335,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>152</v>
       </c>
@@ -2134,7 +2343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>153</v>
       </c>
@@ -2142,7 +2351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>154</v>
       </c>
@@ -2150,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>155</v>
       </c>
@@ -2158,7 +2367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -2166,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>157</v>
       </c>
@@ -2174,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>158</v>
       </c>
@@ -2182,7 +2391,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>177</v>
       </c>
@@ -2190,7 +2399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
@@ -2198,7 +2407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>160</v>
       </c>
@@ -2206,7 +2415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -2214,7 +2423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>162</v>
       </c>
@@ -2222,7 +2431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>163</v>
       </c>
@@ -2230,7 +2439,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
@@ -2238,7 +2447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>165</v>
       </c>
@@ -2246,7 +2455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
@@ -2254,7 +2463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>167</v>
       </c>
@@ -2262,7 +2471,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -2270,7 +2479,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>169</v>
       </c>
@@ -2278,7 +2487,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
   </sheetData>
@@ -2286,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF4F714-5A64-4B0A-90E7-28D299FDF6BE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2294,13 +2503,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="96.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -2316,7 +2525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>190</v>
       </c>
@@ -2324,7 +2533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>191</v>
       </c>
@@ -2332,7 +2541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -2340,7 +2549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
@@ -2348,7 +2557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -2362,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2370,14 +2579,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="131.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2597,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2396,7 +2605,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -2404,7 +2613,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -2412,7 +2621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>198</v>
       </c>
@@ -2420,7 +2629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -2428,7 +2637,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2436,7 +2645,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
@@ -2444,7 +2653,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>202</v>
       </c>
@@ -2452,7 +2661,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -2460,7 +2669,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -2468,7 +2677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
@@ -2476,7 +2685,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>218</v>
       </c>
@@ -2484,7 +2693,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>219</v>
       </c>
@@ -2495,7 +2704,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>220</v>
       </c>
@@ -2506,7 +2715,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>217</v>
       </c>
@@ -2517,7 +2726,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>221</v>
       </c>
@@ -2525,92 +2734,6 @@
         <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2620,21 +2743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7C507-F0F5-42C4-B34F-1CF23A702EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="83.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2645,42 +2768,62 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0DF82-F195-4DAB-9634-0D4ED11E4D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1B74D-BEBE-40B6-B916-27ACA34E8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId2"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId3"/>
-    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId4"/>
-    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId5"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId6"/>
-    <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId7"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId8"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId9"/>
+    <sheet name="Cohort" sheetId="10" r:id="rId2"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId3"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId4"/>
+    <sheet name="Freshman Profile_SAT ACT Score " sheetId="3" r:id="rId5"/>
+    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId6"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId7"/>
+    <sheet name="Transfer Admission_Policies" sheetId="6" r:id="rId8"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId9"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="303">
   <si>
     <t>Answer</t>
   </si>
@@ -820,6 +821,129 @@
   </si>
   <si>
     <t>Rose-Hulman does have early action. The early action closing date is November 1st and early action notification date is December 15th. Students can still apply to other early action programs after applying for early action at Rose-Hulman.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>How many of those students in the initial cohort were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>How many of those students in the initial cohort did not receive either a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>How many exempted student were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>How many of exempted students were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many of exempted students did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students in the final cohort did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort completed the program within four years and were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program within four years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program within four years but did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>How many students  in the initial cohort who completed the program in between four and five years were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>How many students  in the initial cohort who completed the program in between four and five years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>How many students in the initial cohort who completed the program in between four and five years did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years were recipients of a Federal Pell Grant?</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>How many students who completed the program between five and six years did not receive a Pell Grant or a subsidized Stafford Loan?</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Operation Allowed?</t>
+  </si>
+  <si>
+    <t>Sum up?</t>
+  </si>
+  <si>
+    <t>Answer Range?</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The {aggregation} of students {range} in the {initial_final} {year} cohort {} is {value} </t>
+  </si>
+  <si>
+    <t>For student cohort data, you can ask about students exemptions from a cohort year, number of students who graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
   </si>
 </sst>
 </file>
@@ -867,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -880,6 +1004,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,7 +1299,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,12 +1474,318 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.33203125" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,12 +1931,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="AG26" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +2251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -2133,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -2297,12 +2734,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF4F714-5A64-4B0A-90E7-28D299FDF6BE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2571,12 +3008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2604,6 +3041,9 @@
       <c r="B2" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2612,6 +3052,9 @@
       <c r="B3" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2620,6 +3063,9 @@
       <c r="B4" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2628,6 +3074,9 @@
       <c r="B5" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2636,6 +3085,9 @@
       <c r="B6" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2644,6 +3096,9 @@
       <c r="B7" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -2652,6 +3107,9 @@
       <c r="B8" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -2660,6 +3118,9 @@
       <c r="B9" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2668,6 +3129,9 @@
       <c r="B10" s="7" t="s">
         <v>209</v>
       </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2676,6 +3140,9 @@
       <c r="B11" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2684,6 +3151,9 @@
       <c r="B12" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2692,6 +3162,9 @@
       <c r="B13" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2734,92 +3207,6 @@
         <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
         <v>222</v>
       </c>
     </row>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343685E-83EA-4503-8F9D-DA3A2F421BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5392D5-FB20-4E82-BCBA-9FBD53E19C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="305">
   <si>
     <t>Answer</t>
   </si>
@@ -925,25 +925,31 @@
     <t>Template</t>
   </si>
   <si>
-    <t>Operation Allowed?</t>
-  </si>
-  <si>
-    <t>Sum up?</t>
-  </si>
-  <si>
-    <t>Answer Range?</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
     <t>About</t>
   </si>
   <si>
-    <t xml:space="preserve">The {aggregation} of students {range} in the {initial_final} {year} cohort {} is {value} </t>
-  </si>
-  <si>
     <t>For student cohort data, you can ask about students exemptions from a cohort year, number of students who graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
+  </si>
+  <si>
+    <t>Operation-Allowed?</t>
+  </si>
+  <si>
+    <t>Sum-Allowed?</t>
+  </si>
+  <si>
+    <t>Range-Alllowed?</t>
+  </si>
+  <si>
+    <t>The $aggregation of students {who graduated $range $number years and $range $number years} in the $initial_final $year cohort is [value]</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Percentage-Allowed?</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1298,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1555,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,33 +1725,33 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>222</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>222</v>
@@ -1761,9 +1767,17 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2423,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2609,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5392D5-FB20-4E82-BCBA-9FBD53E19C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D02C3-B320-47F8-AC01-7F9058AF6FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Cohort" sheetId="10" r:id="rId2"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId3"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId4"/>
-    <sheet name="Freshman Profile_SAT Score " sheetId="3" r:id="rId5"/>
-    <sheet name="Freshman Profile_SAT Score" sheetId="11" r:id="rId6"/>
-    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId7"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId8"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId9"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId10"/>
+    <sheet name="Enrollment_General" sheetId="12" r:id="rId1"/>
+    <sheet name="Enrollment_Race" sheetId="13" r:id="rId2"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId3"/>
+    <sheet name="Cohort" sheetId="10" r:id="rId4"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId5"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId6"/>
+    <sheet name="Freshman Profile_SAT Score " sheetId="3" r:id="rId7"/>
+    <sheet name="Freshman Profile_SAT Score" sheetId="11" r:id="rId8"/>
+    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId9"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId10"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId11"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="361">
   <si>
     <t>Answer</t>
   </si>
@@ -937,9 +939,6 @@
     <t>Sum-Allowed?</t>
   </si>
   <si>
-    <t>Range-Alllowed?</t>
-  </si>
-  <si>
     <t>The $aggregation of students {who graduated $range $number years and $range $number years} in the $initial_final $year cohort is [value]</t>
   </si>
   <si>
@@ -950,6 +949,177 @@
   </si>
   <si>
     <t>Metadata</t>
+  </si>
+  <si>
+    <t>Range-Allowed?</t>
+  </si>
+  <si>
+    <t>Basis of selection is about the importance of different factors in admission decisions. For basis of selection you can ask about the importance of the following for admission decisions: rigor of secondary school records, class rank, gpa, standardized test scores, recommendation letter, interview, extracirricular activities, talent/ability, character/personal qualities, first generation student, alumni relation, geographic residence, religious affiliation/commitment, racial/ethnic status, volunteer work, work experience, level of applicant's interest.</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate degree-seeking non-freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate degree-seeking non-freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate degree-seeking non-freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate degree-seeking non-freshmen are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time graduate degree-seeking first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time graduate degree-seeking first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time graduate degree-seeking first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time graduate degree-seeking first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time graduate degree-seeking non-first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time graduate degree-seeking non-first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time graduate degree-seeking non-first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time graduate degree-seeking non-first-time students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time graduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time graduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time graduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time graduate non-degree-seeking students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year nonresident aliens are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate nonresident aliens are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year hispanics are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate hispanics are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year african americans are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate african americans are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year white students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate white students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate american indians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year asians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate asians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year pacific islanders are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate pacific islanders are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year students of two or more races are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate students of two or more races are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year students of unknown race are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate students of unknown race are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>For student cohorts, you can ask about students exemptions from a cohort year, number of students who graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
+  </si>
+  <si>
+    <t>Denominator-Question</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] enrolled is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1294,17 +1464,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="119.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,163 +1487,808 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="B2">
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>307</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>308</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>309</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>310</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>311</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>312</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>313</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>314</v>
+      </c>
+      <c r="B10">
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>315</v>
+      </c>
+      <c r="B11">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>316</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>317</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>318</v>
+      </c>
+      <c r="B14">
+        <v>1551</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>320</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>322</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>324</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B56" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="131.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1560,11 +2375,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,10 +2968,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1738,7 +2979,7 @@
         <v>296</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1746,7 +2987,7 @@
         <v>295</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +3008,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>222</v>
@@ -1775,7 +3016,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>222</v>
@@ -1787,7 +3028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1938,7 +3179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -2258,7 +3499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2433,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2604,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -2766,457 +4007,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,35 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D02C3-B320-47F8-AC01-7F9058AF6FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF33833-3F13-4404-BD5D-49D44CF587EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="12" r:id="rId1"/>
-    <sheet name="Enrollment_Race" sheetId="13" r:id="rId2"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId3"/>
+    <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId2"/>
+    <sheet name="Enrollment_Race Freshman" sheetId="13" r:id="rId3"/>
     <sheet name="Cohort" sheetId="10" r:id="rId4"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId5"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId6"/>
-    <sheet name="Freshman Profile_SAT Score " sheetId="3" r:id="rId7"/>
-    <sheet name="Freshman Profile_SAT Score" sheetId="11" r:id="rId8"/>
-    <sheet name="Freshman Profile_Class Rank GPA" sheetId="4" r:id="rId9"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId10"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId11"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId12"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId5"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId6"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId7"/>
+    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId8"/>
+    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId9"/>
+    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId10"/>
+    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId11"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId12"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId13"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId14"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId15"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId16"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="358">
   <si>
     <t>Answer</t>
   </si>
@@ -467,9 +483,6 @@
     <t>10.1%</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>0.7%</t>
   </si>
   <si>
@@ -593,9 +606,6 @@
     <t>There is no minimum high school gpa requirement for transfer admission</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>Rose-Hulman review transfer applications on a rolling basis (year round).</t>
   </si>
   <si>
@@ -707,9 +717,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>String Answer?</t>
-  </si>
-  <si>
     <t>The average age of full-time undergraduate student is 19.7</t>
   </si>
   <si>
@@ -753,9 +760,6 @@
   </si>
   <si>
     <t>What type of college owned, operated, or affiliated housing is available at Rose-Hulman?</t>
-  </si>
-  <si>
-    <t>Complete sentence?</t>
   </si>
   <si>
     <t>Does Rose-Hulman have an application fee, if so how much?</t>
@@ -852,9 +856,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>How many of exempted students were recipients of a Subsidized Stafford Loan but not a Pell Grant?</t>
-  </si>
-  <si>
     <t>How many of exempted students did not receive a Pell Grant or a subsidized Stafford Loan?</t>
   </si>
   <si>
@@ -930,18 +931,12 @@
     <t>About</t>
   </si>
   <si>
-    <t>For student cohort data, you can ask about students exemptions from a cohort year, number of students who graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
-  </si>
-  <si>
     <t>Operation-Allowed?</t>
   </si>
   <si>
     <t>Sum-Allowed?</t>
   </si>
   <si>
-    <t>The $aggregation of students {who graduated $range $number years and $range $number years} in the $initial_final $year cohort is [value]</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -993,18 +988,6 @@
     <t>How many female part-time undergraduate degree-seeking non-freshmen are enrolled?</t>
   </si>
   <si>
-    <t>How many male full-time undergraduate degree-seeking students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female full-time undergraduate degree-seeking students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many male part-time undergraduate degree-seeking students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female part-time undergraduate degree-seeking students are enrolled?</t>
-  </si>
-  <si>
     <t>How many male full-time undergraduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
@@ -1116,10 +1099,34 @@
     <t>Denominator-Question</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is [value]</t>
+  </si>
+  <si>
+    <t>How many of exempted students were recipients of a Subsidized Stafford Loan but not did not receive a Pell Grant?</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>Complete Sentence?</t>
+  </si>
+  <si>
+    <t>The minimum gpa required of transfer applicants is 3.0</t>
+  </si>
+  <si>
+    <t>The maximum number of credits tranfer student must complete to earn bachelor degree is 45 credits</t>
+  </si>
+  <si>
+    <t>The maximum number of credit that maybe tranferred from a 4 year institution is 90 credits</t>
+  </si>
+  <si>
+    <t>The maximum number of credit that maybe tranferred from a 2 year institution is 90 credits</t>
+  </si>
+  <si>
+    <t>1.0%</t>
   </si>
 </sst>
 </file>
@@ -1465,368 +1472,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="119.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2">
-        <v>481</v>
+        <v>299</v>
+      </c>
+      <c r="B2" s="6">
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3">
-        <v>156</v>
+        <v>300</v>
+      </c>
+      <c r="B3" s="6">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5">
+        <v>302</v>
+      </c>
+      <c r="B5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
+        <v>303</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7">
+        <v>304</v>
+      </c>
+      <c r="B7" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8">
+        <v>305</v>
+      </c>
+      <c r="B8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9">
+        <v>306</v>
+      </c>
+      <c r="B9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10">
-        <v>1056</v>
+        <v>307</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11">
-        <v>345</v>
+        <v>308</v>
+      </c>
+      <c r="B11" s="6">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12">
+        <v>309</v>
+      </c>
+      <c r="B12" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
+        <v>310</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14">
-        <v>1551</v>
+        <v>311</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15">
-        <v>503</v>
+        <v>312</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
+        <v>313</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
+        <v>314</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
+        <v>316</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20">
+        <v>317</v>
+      </c>
+      <c r="B20" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
+        <v>319</v>
+      </c>
+      <c r="B22" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
+        <v>320</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25">
+        <v>322</v>
+      </c>
+      <c r="B25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26">
+        <v>323</v>
+      </c>
+      <c r="B26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27">
+        <v>324</v>
+      </c>
+      <c r="B27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
+        <v>325</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B29">
+        <v>326</v>
+      </c>
+      <c r="B29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
+      <c r="A30" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="A31" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="A33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B34" t="s">
-        <v>359</v>
+      <c r="A34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>296</v>
+      <c r="A35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
-        <v>222</v>
+      <c r="B36" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1836,17 +1776,612 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1857,223 +2392,281 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9</v>
+        <v>158</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="7">
-        <v>23</v>
+        <v>159</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="7">
-        <v>13</v>
+        <v>160</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>164</v>
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>165</v>
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>166</v>
+        <v>356</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>167</v>
+        <v>355</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>168</v>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>169</v>
+        <v>354</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>193</v>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2081,12 +2674,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
-  <dimension ref="A1:C17"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,183 +2822,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2288,12 +3052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2311,62 +3075,108 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2375,11 +3185,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2399,204 +3366,132 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B8">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B9">
-        <v>1390</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" t="s">
-        <v>356</v>
+      <c r="B18" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2604,11 +3499,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.33203125" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2780,18 +3903,18 @@
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2800,240 +3923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,129 +3943,129 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>239</v>
+      <c r="C1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3179,33 +4074,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A22" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3213,7 +4105,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +4113,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -3229,7 +4121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -3237,7 +4129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +4137,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3253,7 +4145,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -3261,15 +4153,15 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,7 +4169,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3285,7 +4177,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -3293,7 +4185,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +4193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -3309,7 +4201,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3317,7 +4209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -3362,7 +4254,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3394,7 +4286,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3426,7 +4318,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3458,7 +4350,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3490,7 +4382,59 @@
         <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3499,12 +4443,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="95.21875" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3618,51 +4687,55 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>132</v>
+      <c r="A14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>131</v>
+      <c r="A17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>131</v>
+      <c r="A18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>131</v>
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3672,339 +4745,4 @@
     <ignoredError sqref="B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF33833-3F13-4404-BD5D-49D44CF587EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF57765-696A-4B3A-9AE3-D1BC33745C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="12" r:id="rId1"/>
@@ -30,6 +30,10 @@
     <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId15"/>
     <sheet name="Student Life_Categories" sheetId="7" r:id="rId16"/>
     <sheet name="Student Life_Offered" sheetId="8" r:id="rId17"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId18"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId19"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId20"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="464">
   <si>
     <t>Answer</t>
   </si>
@@ -1099,9 +1103,6 @@
     <t>Denominator-Question</t>
   </si>
   <si>
-    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is [value]</t>
   </si>
   <si>
@@ -1127,6 +1128,327 @@
   </si>
   <si>
     <t>1.0%</t>
+  </si>
+  <si>
+    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Which needs-analysis methodology does your institution use in awarding institutional aid?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based federal scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based federal scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based state scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based state scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based institutional scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based institutional scholarship or grants awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based scholarship or grants from external sources awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based scholarship or grants from external sources awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based student loan awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based student loan awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based federal work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based state and other work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the total amount of need-based self-help awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the total amount of non-need-based self-help awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based parent loans awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based parent loans awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the number of full-time full-time freshman students who applied for need-based financial aid</t>
+  </si>
+  <si>
+    <t>What is the number of  degree-seeking first-time full-time freshman students that applied for need-based financial aid and were determined to have financial need</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who were determined to have financial need and were awarded any financial aid.</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who were awarded any need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who were awarded any need-based self-help aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who were awarded any non-need-based scholarship or grant aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students whose financial need was fully met </t>
+  </si>
+  <si>
+    <t>On average, what is the percentage of financial need that was met for degree-seeking first-time full-time freshman students who were awarded any need-based aid?</t>
+  </si>
+  <si>
+    <t>What is the average financial aid package for degree-seeking first-time full-time freshman students who were awarded any financial aid?</t>
+  </si>
+  <si>
+    <t>What is the average need-based scholarship or grant awarded to degree-seeking first-time full-time freshman students?</t>
+  </si>
+  <si>
+    <t>What is the average need-based self-help awarded to degree-seeking first-time full-time freshman students ?</t>
+  </si>
+  <si>
+    <t>What is the average need-based loan of students who were awarded any need-based self-help aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who were awarded an institutional non-need-based athletic scholarship or grant?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based athletic scholarship and grant to degree-seeking first-time full-time freshman students?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based scholarship and grant aid awarded to degree-seeking full-time freshman students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the average need-based loan of degree-seeking first-time full-time freshman  students who were awarded any need-based self-help aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who applied for need-based financial aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students that applied for need-based financial aid and were determined to have financial need</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who were determined to have financial need and were awarded any financial aid.</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who were awarded any need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who were awarded any need-based self-help aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who were awarded any non-need-based scholarship or grant aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students whose financial need was fully met </t>
+  </si>
+  <si>
+    <t>On average, what is the percentage of financial need that was met for degree-seeking full-time undergraduate students who were awarded any need-based aid?</t>
+  </si>
+  <si>
+    <t>What is the average financial aid package for degree-seeking full-time undergraduate students who were awarded any financial aid?</t>
+  </si>
+  <si>
+    <t>What is the average need-based scholarship or grant awarded to degree-seeking full-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the average need-based self-help awarded to degree-seeking full-time undergraduate students ?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based scholarship and grant aid award to degree-seeking full-time students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time undergraduate students who were awarded an institutional non-need-based athletic scholarship or grant?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based athletic scholarship and grant to degree-seeking full-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who applied for need-based financial aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students that applied for need-based financial aid and were determined to have financial need</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who were determined to have financial need and were awarded any financial aid.</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who were awarded any need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who were awarded any need-based self-help aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who were awarded any non-need-based scholarship or grant aid</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students whose financial need was fully met </t>
+  </si>
+  <si>
+    <t>On average, what is the percentage of financial need that was met for degree-seeking part-time undergraduate students who were awarded any need-based aid?</t>
+  </si>
+  <si>
+    <t>What is the average financial aid package for degree-seeking part-time undergraduate students who were awarded any financial aid?</t>
+  </si>
+  <si>
+    <t>What is the average need-based scholarship or grant awarded to degree-seeking part-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the average need-based self-help awarded to degree-seeking part-time undergraduate students ?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based scholarship and grant aid award to degree-seeking part-time students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid?</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking part-time undergraduate students who were awarded an institutional non-need-based athletic scholarship or grant?</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based athletic scholarship and grant to degree-seeking part-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>$1355304</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>$856068</t>
+  </si>
+  <si>
+    <t>$8748</t>
+  </si>
+  <si>
+    <t>$34630806</t>
+  </si>
+  <si>
+    <t>$13098841</t>
+  </si>
+  <si>
+    <t>$738685</t>
+  </si>
+  <si>
+    <t>$10691241</t>
+  </si>
+  <si>
+    <t>$979015</t>
+  </si>
+  <si>
+    <t>$771042</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based federal work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based state and other work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based tuition waiver aid awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based tuition waiver aid awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based athletic award awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-based athletic award awarded to students?</t>
+  </si>
+  <si>
+    <t>$11462283</t>
+  </si>
+  <si>
+    <t>$4938549</t>
+  </si>
+  <si>
+    <t>$375919</t>
+  </si>
+  <si>
+    <t>Rose-Hulman uses federal methology in awarding institutional aid.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>73.5%</t>
+  </si>
+  <si>
+    <t>$39903</t>
+  </si>
+  <si>
+    <t>$38185</t>
+  </si>
+  <si>
+    <t>$3840</t>
+  </si>
+  <si>
+    <t>$3327</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>$21671</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>$35451</t>
+  </si>
+  <si>
+    <t>$33608</t>
+  </si>
+  <si>
+    <t>$4679</t>
+  </si>
+  <si>
+    <t>$4351</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>$16643</t>
+  </si>
+  <si>
+    <t>64.7%</t>
+  </si>
+  <si>
+    <t>$26732</t>
+  </si>
+  <si>
+    <t>$24932</t>
+  </si>
+  <si>
+    <t>$4500</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>$14293</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1191,6 +1513,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,14 +1802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1729,12 +2057,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,7 +2295,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,7 +2409,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2518,7 +2846,7 @@
         <v>165</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -2573,7 +2901,7 @@
         <v>188</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
         <v>220</v>
@@ -2584,7 +2912,7 @@
         <v>189</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s">
         <v>220</v>
@@ -2606,7 +2934,7 @@
         <v>171</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
         <v>220</v>
@@ -2804,7 +3132,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,7 +3385,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -3177,6 +3505,419 @@
       </c>
       <c r="B12" t="s">
         <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3334,6 +4075,316 @@
       </c>
       <c r="B18" t="s">
         <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +4606,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>266</v>
@@ -3686,7 +4737,7 @@
         <v>290</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3944,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4158,7 +5209,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4254,7 +5305,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +5337,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4318,7 +5369,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4350,7 +5401,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4382,7 +5433,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4447,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,32 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF57765-696A-4B3A-9AE3-D1BC33745C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30642D70-B98E-4390-A6D1-A18ACF30869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Enrollment_General" sheetId="12" r:id="rId1"/>
-    <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId2"/>
-    <sheet name="Enrollment_Race Freshman" sheetId="13" r:id="rId3"/>
-    <sheet name="Cohort" sheetId="10" r:id="rId4"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId5"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId6"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId7"/>
-    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId8"/>
-    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId9"/>
-    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId10"/>
-    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId11"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId12"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId13"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId14"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId15"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId16"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId17"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId18"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId19"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId20"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId21"/>
+    <sheet name="General Info" sheetId="23" r:id="rId1"/>
+    <sheet name="Enrollment_General" sheetId="12" r:id="rId2"/>
+    <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId3"/>
+    <sheet name="Enrollment_Race Freshman" sheetId="13" r:id="rId4"/>
+    <sheet name="Cohort" sheetId="10" r:id="rId5"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId6"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId7"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId8"/>
+    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId9"/>
+    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId10"/>
+    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId11"/>
+    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId12"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId13"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId14"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId15"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId16"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId17"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId18"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId19"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId20"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId21"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId22"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId23"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId24"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="491">
   <si>
     <t>Answer</t>
   </si>
@@ -1449,6 +1453,87 @@
   </si>
   <si>
     <t>$14293</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman's mailing address?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman admissions phone number?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s www home page address / website?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman admissions toll free phone number?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman admissions office mailing address?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s admission fax number?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s email?</t>
+  </si>
+  <si>
+    <t>What is the url for Rose-Hulman’s online application?</t>
+  </si>
+  <si>
+    <t>What is the source of institutional control for Rose-Hulman. Is the institution a private or public college?</t>
+  </si>
+  <si>
+    <t>Is Rose-Hulman a coeducational college, men’s college or women’s college?</t>
+  </si>
+  <si>
+    <t>What academic year calendar does Rose-Hulman use? Is it quarter, semester, trimester, continuous, 4-1-4, or does it differ by program?</t>
+  </si>
+  <si>
+    <t>What degrees are offered by Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty who are women?</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty who are women?</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty who are men?</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty who are men?</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty who have a doctorate degree?</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty who have a doctorate degree?</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty whose highest degree is a masters </t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty whose highest degree is a masters</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty whose highest degree is a bachelors </t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty whose highest degree is a bachelor</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty whose highest degree is unknown</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty whose highest degree is unknown</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty in stand-alone graduate/professional programs in which instructional faculty teach virtually only graduate level students</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty in stand-alone graduate/professional programs in which instructional faculty teach virtually only graduate level students</t>
+  </si>
+  <si>
+    <t>What is the student to faculty ratio at Rose-Hulman?</t>
   </si>
 </sst>
 </file>
@@ -1799,311 +1884,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="6">
-        <v>387</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="6">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="6">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1082</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="6">
-        <v>329</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="6">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
+      <c r="A14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
+      <c r="A17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
+      <c r="A18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A20" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B20" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2228,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2404,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2572,7 +2658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2697,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -3002,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3127,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -3380,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3512,12 +3598,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3737,7 +3823,7 @@
         <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3770,7 +3856,312 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3925,7 +4316,477 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -4082,317 +4943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="85.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="5">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="5">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -4550,12 +5101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4778,7 +5329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -4974,7 +5525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5125,7 +5676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -5494,7 +6045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5617,183 +6168,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30642D70-B98E-4390-A6D1-A18ACF30869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A26E8-214B-4B05-A02C-6FC79277F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1107,9 +1107,6 @@
     <t>Denominator-Question</t>
   </si>
   <si>
-    <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is [value]</t>
-  </si>
-  <si>
     <t>How many of exempted students were recipients of a Subsidized Stafford Loan but not did not receive a Pell Grant?</t>
   </si>
   <si>
@@ -1534,6 +1531,9 @@
   </si>
   <si>
     <t>What is the student to faculty ratio at Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,12 +1906,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
         <v>220</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
         <v>220</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
         <v>220</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
         <v>220</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
         <v>220</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>220</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
         <v>220</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C10" t="s">
         <v>220</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
         <v>220</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C12" t="s">
         <v>220</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -2381,7 +2381,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2932,7 +2932,7 @@
         <v>165</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -2987,7 +2987,7 @@
         <v>188</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
         <v>220</v>
@@ -2998,7 +2998,7 @@
         <v>189</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
         <v>220</v>
@@ -3020,7 +3020,7 @@
         <v>171</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>220</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -3622,186 +3622,186 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +4120,7 @@
         <v>290</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4185,7 +4185,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="7">
         <v>466</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B3" s="7">
         <v>360</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="7">
         <v>360</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B5" s="7">
         <v>357</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" s="7">
         <v>236</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="7">
         <v>168</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="7">
         <v>124</v>
@@ -4241,74 +4241,74 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4340,15 +4340,15 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" s="5">
         <v>1151</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="5">
         <v>1150</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="5">
         <v>1144</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="5">
         <v>829</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="5">
         <v>1009</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" s="5">
         <v>284</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>64</v>
@@ -4404,66 +4404,66 @@
     </row>
     <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>287</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>287</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -4551,74 +4551,74 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4650,22 +4650,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4697,42 +4697,42 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4763,22 +4763,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4791,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>266</v>
@@ -5288,7 +5288,7 @@
         <v>290</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>348</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5760,7 +5760,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5856,7 +5856,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5952,7 +5952,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,7 +5984,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A26E8-214B-4B05-A02C-6FC79277F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AE331-1895-4489-ABE9-BF5D66F099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
     <t>What is the student to faculty ratio at Rose-Hulman?</t>
   </si>
   <si>
-    <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
+    <t>The (or [aggregation] number) of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -5105,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AE331-1895-4489-ABE9-BF5D66F099C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E40D6-51F0-49E2-BD0F-8869454E856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="493">
   <si>
     <t>Answer</t>
   </si>
@@ -1185,9 +1185,6 @@
     <t>What is the amount of non-need-based parent loans awarded to students?</t>
   </si>
   <si>
-    <t>What is the number of full-time full-time freshman students who applied for need-based financial aid</t>
-  </si>
-  <si>
     <t>What is the number of  degree-seeking first-time full-time freshman students that applied for need-based financial aid and were determined to have financial need</t>
   </si>
   <si>
@@ -1534,6 +1531,15 @@
   </si>
   <si>
     <t>The (or [aggregation] number) of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking full-time full-time freshman students who applied for need-based financial aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (xor { on [aggregation], the [aggregation] } {The number}) of degree-seeking, first-time, full-time freshman students (xor {whose need was [financial_aid_degree_met] } {who were awarded any [need_non_need_base_aid] (xor [financial_aid_type]  institutional) (xor  [self-help] scholarship and grant) }) aid</t>
+  </si>
+  <si>
+    <t>The (xor [percentile] [aggregation]) score for [standarized_test] [subject] is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
         <v>220</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
         <v>220</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
         <v>220</v>
@@ -1935,7 +1941,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
         <v>220</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
         <v>220</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
         <v>220</v>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
         <v>220</v>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
@@ -1975,7 +1981,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
         <v>220</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
         <v>220</v>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
         <v>220</v>
@@ -1999,7 +2005,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
@@ -2015,7 +2021,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,7 +2501,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,7 +2669,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2788,7 +2794,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3093,7 +3099,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3218,7 +3224,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3471,7 +3477,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3631,7 @@
         <v>357</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3633,7 +3639,7 @@
         <v>358</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3641,7 +3647,7 @@
         <v>359</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3649,7 +3655,7 @@
         <v>360</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3657,7 +3663,7 @@
         <v>361</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3665,7 +3671,7 @@
         <v>362</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3673,7 +3679,7 @@
         <v>363</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3681,7 +3687,7 @@
         <v>364</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -3689,7 +3695,7 @@
         <v>365</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3703,7 @@
         <v>366</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3705,7 +3711,7 @@
         <v>367</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3713,15 +3719,15 @@
         <v>368</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,15 +3735,15 @@
         <v>369</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3745,7 +3751,7 @@
         <v>370</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3753,7 +3759,7 @@
         <v>371</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3761,7 +3767,7 @@
         <v>372</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3769,39 +3775,39 @@
         <v>373</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3861,7 +3867,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4163,16 +4169,16 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="99.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4183,9 +4189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="B2" s="7">
         <v>466</v>
@@ -4193,7 +4199,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="7">
         <v>360</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="7">
         <v>360</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="7">
         <v>357</v>
@@ -4217,7 +4223,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B6" s="7">
         <v>236</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B7" s="7">
         <v>168</v>
@@ -4233,7 +4239,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="7">
         <v>124</v>
@@ -4241,74 +4247,127 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4340,15 +4399,15 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="5">
         <v>1151</v>
@@ -4356,7 +4415,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="5">
         <v>1150</v>
@@ -4364,7 +4423,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="5">
         <v>1144</v>
@@ -4372,7 +4431,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" s="5">
         <v>829</v>
@@ -4380,7 +4439,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="5">
         <v>1009</v>
@@ -4388,7 +4447,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="5">
         <v>284</v>
@@ -4396,7 +4455,7 @@
     </row>
     <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>64</v>
@@ -4404,66 +4463,66 @@
     </row>
     <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4475,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4495,7 +4554,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -4503,7 +4562,7 @@
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -4511,7 +4570,7 @@
     </row>
     <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>287</v>
@@ -4519,7 +4578,7 @@
     </row>
     <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>287</v>
@@ -4527,7 +4586,7 @@
     </row>
     <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -4535,7 +4594,7 @@
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -4543,7 +4602,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -4551,74 +4610,74 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4631,7 +4690,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4650,22 +4709,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4697,42 +4756,42 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4768,17 +4827,17 @@
     </row>
     <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +5007,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -5288,7 +5347,7 @@
         <v>290</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5333,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5530,7 +5589,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5680,14 +5739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6005,7 +6064,9 @@
       <c r="A40" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E40D6-51F0-49E2-BD0F-8869454E856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23C515-B4E1-41D3-9139-D7A11418B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -20,24 +20,25 @@
     <sheet name="Cohort" sheetId="10" r:id="rId5"/>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId6"/>
     <sheet name="Admission Policies" sheetId="9" r:id="rId7"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId8"/>
-    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId9"/>
-    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId10"/>
-    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId11"/>
-    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId12"/>
+    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId8"/>
+    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId9"/>
+    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId10"/>
+    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId11"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId12"/>
     <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId13"/>
     <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId14"/>
     <sheet name="Transfer Admission_General" sheetId="5" r:id="rId15"/>
     <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId16"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId17"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId18"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId19"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId20"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId21"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId22"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId23"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId24"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId25"/>
+    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId17"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId18"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId19"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId20"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId21"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId22"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId23"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId24"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId25"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="520">
   <si>
     <t>Answer</t>
   </si>
@@ -1467,9 +1468,6 @@
     <t>What is Rose-Hulman’s admission fax number?</t>
   </si>
   <si>
-    <t>What is Rose-Hulman’s email?</t>
-  </si>
-  <si>
     <t>What is the url for Rose-Hulman’s online application?</t>
   </si>
   <si>
@@ -1530,23 +1528,108 @@
     <t>What is the student to faculty ratio at Rose-Hulman?</t>
   </si>
   <si>
-    <t>The (or [aggregation] number) of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>What is the number of degree-seeking full-time full-time freshman students who applied for need-based financial aid</t>
   </si>
   <si>
-    <t xml:space="preserve"> (xor { on [aggregation], the [aggregation] } {The number}) of degree-seeking, first-time, full-time freshman students (xor {whose need was [financial_aid_degree_met] } {who were awarded any [need_non_need_base_aid] (xor [financial_aid_type]  institutional) (xor  [self-help] scholarship and grant) }) aid</t>
-  </si>
-  <si>
     <t>The (xor [percentile] [aggregation]) score for [standarized_test] [subject] is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What special study programs are offered at Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>What are the areas in which students are required to complete some coursework prior to graduation?</t>
+  </si>
+  <si>
+    <t>The special study programs offered at Rose-Hulman includes the following: Accelerated program, Cooperative education program, Cross-registration, Double major, Dual enrollment, English as Second Language(ESL), Exchange student program (domestic) , Independent study, and Study abroad</t>
+  </si>
+  <si>
+    <t>Complete Sentence</t>
+  </si>
+  <si>
+    <t>The areas in which all or most students are requried to complete some course work prior to graduation are the following: computer literacy, English(including composition), Humanities, Mathematics, Sciences(biological or physical) and Social science</t>
+  </si>
+  <si>
+    <t>The number of [gender] transfer applicants that are [action] is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's mailing address is 5500 Wabash Ave, Terre Haute, IN 47803</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman main phone number?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's main phone number is (812) 877-1511</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's website is www.rose-hulman.edu</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's admissions number is (812) 877-8213</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's admissions toll free phone number is 800-248-7448</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's admission office mailing address is: Admissions Office, Rose-Hulman Institute of Technology
+5500 Wabash Ave, Terre Haute, IN 47803</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's fax number is (812) 877-8941</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman’s admission email address?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman admissions email address is admissions@rose-hulman.edu</t>
+  </si>
+  <si>
+    <t>The url for Rose-Hulman's online application is: https://www.commonapp.org/explore/rose-hulman-institute-technology</t>
+  </si>
+  <si>
+    <t>Rose-Hulman is a private college</t>
+  </si>
+  <si>
+    <t>Rose-Hulman is a coeducational college</t>
+  </si>
+  <si>
+    <t>Rose-Hulman uses quarter system.</t>
+  </si>
+  <si>
+    <t>Rose-Hulman offers bachelors and masters degree</t>
+  </si>
+  <si>
+    <t>The number ofdegree-seeking undergraduate (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time freshman  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(xor [academic_factor] [non_academic_factor]) is &lt;value&gt; in Rose-Hulman admission decisions </t>
+  </si>
+  <si>
+    <t>The (xor [aggregation] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with sat composite score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with sat (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with act composite (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>The percentage of students with</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,6 +1649,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1584,16 +1681,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1611,8 +1708,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1891,124 +1998,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>462</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="C2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
+      <c r="B14" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2017,125 +2216,253 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>95</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B14" t="s">
@@ -2143,16 +2470,18 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2189,304 +2518,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
-  <dimension ref="A1:B14"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="68.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>355</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="4">
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>131</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>131</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="4">
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B38" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B42" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B44" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2501,20 +2897,20 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2522,7 +2918,7 @@
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2530,7 +2926,7 @@
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2538,7 +2934,7 @@
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2546,7 +2942,7 @@
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2554,7 +2950,7 @@
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2562,7 +2958,7 @@
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2570,7 +2966,7 @@
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2578,7 +2974,7 @@
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2586,7 +2982,7 @@
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2594,20 +2990,20 @@
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B13" t="s">
@@ -2615,7 +3011,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B14"/>
@@ -2624,7 +3020,9 @@
       <c r="A15" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" s="4" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2674,12 +3072,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -2687,55 +3085,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B8" t="s">
@@ -2743,7 +3141,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2793,22 +3191,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="7" customWidth="1"/>
+    <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -2816,10 +3214,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C2" t="s">
@@ -2827,10 +3225,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C3" t="s">
@@ -2838,18 +3236,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C5" t="s">
@@ -2857,10 +3255,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C6" t="s">
@@ -2868,10 +3266,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C7" t="s">
@@ -2879,10 +3277,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
@@ -2890,10 +3288,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>180</v>
       </c>
       <c r="C9" t="s">
@@ -2901,10 +3299,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C10" t="s">
@@ -2912,10 +3310,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C11" t="s">
@@ -2923,10 +3321,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C12" t="s">
@@ -2934,10 +3332,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C13" t="s">
@@ -2945,10 +3343,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C14" t="s">
@@ -2956,10 +3354,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C15" t="s">
@@ -2967,10 +3365,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C16" t="s">
@@ -2981,7 +3379,7 @@
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C17" t="s">
@@ -2992,7 +3390,7 @@
       <c r="A18" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C18" t="s">
@@ -3003,7 +3401,7 @@
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C19" t="s">
@@ -3014,7 +3412,7 @@
       <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C20" t="s">
@@ -3025,7 +3423,7 @@
       <c r="A21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>352</v>
       </c>
       <c r="C21" t="s">
@@ -3036,7 +3434,7 @@
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C22" t="s">
@@ -3044,7 +3442,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B23" t="s">
@@ -3052,7 +3450,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B24"/>
@@ -3099,13 +3497,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3117,55 +3515,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B8" t="s">
@@ -3173,13 +3571,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,6 +3621,109 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -3230,7 +3734,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3238,7 +3742,7 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -3249,7 +3753,7 @@
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C2" t="s">
@@ -3260,7 +3764,7 @@
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C3" t="s">
@@ -3271,7 +3775,7 @@
       <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C4" t="s">
@@ -3282,7 +3786,7 @@
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C5" t="s">
@@ -3293,7 +3797,7 @@
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C6" t="s">
@@ -3304,7 +3808,7 @@
       <c r="A7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C7" t="s">
@@ -3315,7 +3819,7 @@
       <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C8" t="s">
@@ -3326,7 +3830,7 @@
       <c r="A9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C9" t="s">
@@ -3337,7 +3841,7 @@
       <c r="A10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C10" t="s">
@@ -3348,7 +3852,7 @@
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C11" t="s">
@@ -3359,7 +3863,7 @@
       <c r="A12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C12" t="s">
@@ -3370,7 +3874,7 @@
       <c r="A13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C13" t="s">
@@ -3381,7 +3885,7 @@
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C14" t="s">
@@ -3392,7 +3896,7 @@
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>221</v>
       </c>
       <c r="C15" t="s">
@@ -3403,7 +3907,7 @@
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C16" t="s">
@@ -3414,7 +3918,7 @@
       <c r="A17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C17" t="s">
@@ -3422,7 +3926,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B18" t="s">
@@ -3430,7 +3934,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B19"/>
@@ -3472,18 +3976,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3491,7 +3995,7 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -3502,7 +4006,7 @@
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C2" t="s">
@@ -3513,7 +4017,7 @@
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C3" t="s">
@@ -3524,7 +4028,7 @@
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C4" t="s">
@@ -3535,7 +4039,7 @@
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C5" t="s">
@@ -3546,7 +4050,7 @@
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C6" t="s">
@@ -3554,7 +4058,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B7" t="s">
@@ -3562,7 +4066,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B8"/>
@@ -3601,264 +4105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3867,20 +4113,20 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3888,7 +4134,7 @@
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>387</v>
       </c>
     </row>
@@ -3896,7 +4142,7 @@
       <c r="A3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>143</v>
       </c>
     </row>
@@ -3904,7 +4150,7 @@
       <c r="A4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3912,7 +4158,7 @@
       <c r="A5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3920,7 +4166,7 @@
       <c r="A6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9</v>
       </c>
     </row>
@@ -3928,7 +4174,7 @@
       <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3936,7 +4182,7 @@
       <c r="A8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +4190,7 @@
       <c r="A9" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3952,7 +4198,7 @@
       <c r="A10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1082</v>
       </c>
     </row>
@@ -3960,7 +4206,7 @@
       <c r="A11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>329</v>
       </c>
     </row>
@@ -3968,7 +4214,7 @@
       <c r="A12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>15</v>
       </c>
     </row>
@@ -3976,7 +4222,7 @@
       <c r="A13" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3984,7 +4230,7 @@
       <c r="A14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3992,7 +4238,7 @@
       <c r="A15" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4000,7 +4246,7 @@
       <c r="A16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4008,7 +4254,7 @@
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4016,7 +4262,7 @@
       <c r="A18" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4024,7 +4270,7 @@
       <c r="A19" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4032,7 +4278,7 @@
       <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4040,7 +4286,7 @@
       <c r="A21" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4048,7 +4294,7 @@
       <c r="A22" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>6</v>
       </c>
     </row>
@@ -4056,7 +4302,7 @@
       <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4064,7 +4310,7 @@
       <c r="A24" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>5</v>
       </c>
     </row>
@@ -4072,7 +4318,7 @@
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4080,7 +4326,7 @@
       <c r="A26" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4088,7 +4334,7 @@
       <c r="A27" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4096,7 +4342,7 @@
       <c r="A28" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4104,20 +4350,20 @@
       <c r="A29" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4125,7 +4371,7 @@
       <c r="A32" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4133,7 +4379,7 @@
       <c r="A33" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4141,7 +4387,7 @@
       <c r="A34" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4149,7 +4395,7 @@
       <c r="A35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4157,7 +4403,7 @@
       <c r="A36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4168,205 +4414,507 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="78.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="6">
         <v>466</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>357</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4375,7 +4923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -4385,143 +4933,143 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1009</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4530,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -4540,191 +5088,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>448</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4733,6 +5234,53 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -4742,12 +5290,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4755,43 +5303,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +5347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4809,13 +5357,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4826,18 +5374,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4850,17 +5398,17 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4868,7 +5416,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B2">
@@ -4940,7 +5488,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B11" t="s">
@@ -4948,13 +5496,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5007,13 +5558,13 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.21875" customWidth="1"/>
+    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5098,7 +5649,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B11" t="s">
@@ -5106,13 +5657,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5164,197 +5718,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>489</v>
+      <c r="B22" s="5" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5362,7 +5916,7 @@
       <c r="A24" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5370,7 +5924,7 @@
       <c r="A25" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5378,7 +5932,7 @@
       <c r="A26" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5390,23 +5944,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A22" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5414,7 +5968,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5422,7 +5976,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5430,7 +5984,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5438,7 +5992,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5446,7 +6000,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5454,7 +6008,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5462,7 +6016,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5470,7 +6024,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5478,7 +6032,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5486,7 +6040,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5494,7 +6048,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5502,7 +6056,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5510,7 +6064,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5518,7 +6072,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5526,7 +6080,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5534,7 +6088,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5542,7 +6096,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5550,7 +6104,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5558,24 +6112,32 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5586,22 +6148,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="58.88671875" style="6"/>
+    <col min="1" max="16384" width="58.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -5609,125 +6171,139 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5736,18 +6312,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="67" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="95.21875" customWidth="1"/>
+    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -5760,473 +6335,287 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5">
-        <v>350</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
-        <v>296</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1270</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5">
-        <v>610</v>
+        <v>84</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5">
-        <v>650</v>
+      <c r="A8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1355</v>
+      <c r="A9" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5">
-        <v>650</v>
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5">
-        <v>700</v>
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
+      <c r="A13" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="5">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="5">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="5">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B40" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B14" s="5" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>134</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" s="5" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23C515-B4E1-41D3-9139-D7A11418B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91A9C3-9A20-4EB3-85FF-0DCC7C050E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -18,27 +18,29 @@
     <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId3"/>
     <sheet name="Enrollment_Race Freshman" sheetId="13" r:id="rId4"/>
     <sheet name="Cohort" sheetId="10" r:id="rId5"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId6"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId7"/>
-    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId8"/>
-    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId9"/>
-    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId10"/>
-    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId11"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId12"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId13"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId14"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId15"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId16"/>
-    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId17"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId18"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId19"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId20"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId21"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId22"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId23"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId24"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId25"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId26"/>
+    <sheet name="High School Units_Required" sheetId="29" r:id="rId6"/>
+    <sheet name="High School Units_Recommended" sheetId="28" r:id="rId7"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId8"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId9"/>
+    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId10"/>
+    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId11"/>
+    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId12"/>
+    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId13"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId14"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId15"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId16"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId17"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId18"/>
+    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId19"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId20"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId21"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId22"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId23"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId24"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId25"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId26"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId27"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2216,10 +2218,319 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="95.21875" customWidth="1"/>
+    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2343,12 +2654,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,11 +2832,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="105" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2892,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3062,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3187,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -3492,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3620,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3720,391 +4031,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4414,6 +4340,391 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="131.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -4671,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -4923,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -5078,7 +5389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -5233,7 +5544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5280,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -5347,7 +5658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5558,7 +5869,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5943,6 +6254,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -6146,7 +6483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -6309,313 +6646,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91A9C3-9A20-4EB3-85FF-0DCC7C050E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1E8CB-46CA-419C-906F-ECC65A770498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -38,9 +38,12 @@
     <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId23"/>
     <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId24"/>
     <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId25"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId26"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId27"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId26"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId27"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId30"/>
+    <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="547">
   <si>
     <t>Answer</t>
   </si>
@@ -149,18 +152,6 @@
     <t>not considerd</t>
   </si>
   <si>
-    <t>How many student submitted ACT</t>
-  </si>
-  <si>
-    <t>How many student submitted SAT</t>
-  </si>
-  <si>
-    <t>What is the percent of students submitting ACT</t>
-  </si>
-  <si>
-    <t>What is the percent of students submitting SAT</t>
-  </si>
-  <si>
     <t>What is the 25th percentile score for ACT composite</t>
   </si>
   <si>
@@ -371,54 +362,6 @@
     <t>What is the percentage of freshman students with act score in the range below 6 for act math</t>
   </si>
   <si>
-    <t>What is the percentage of students in the bottom half of their high school graduating class?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students in the bottom quarter of their high school graduating class?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students in the top half of their high school graduating class?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students in the top quarter of their high school graduating class?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students in the top tenth of their high school graduating class?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students who submitted high school class rank?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 4.00?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 3.75 and 3.99?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 3.50 and 3.74?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 3.25 and 3.49?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 3.00 and 3.24?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 2.50 and 2.99?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 2.00 and 2.49?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between 1.00 and 1.99?</t>
-  </si>
-  <si>
-    <t>What is the percentage of students with gpa between below 1.00?</t>
-  </si>
-  <si>
-    <t>What is the average high school gpa for students who submitted gpa?</t>
-  </si>
-  <si>
     <t>60.1% (303/504)</t>
   </si>
   <si>
@@ -435,12 +378,6 @@
   </si>
   <si>
     <t>0.2% (1/504)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  What is the percentage of students who submitted gpa?</t>
-  </si>
-  <si>
-    <t>94.9 % (504/531)</t>
   </si>
   <si>
     <t>27.1%</t>
@@ -1521,12 +1458,6 @@
     <t>What is the total number of part-time instructional faculty whose highest degree is unknown</t>
   </si>
   <si>
-    <t>What is the total number of full-time instructional faculty in stand-alone graduate/professional programs in which instructional faculty teach virtually only graduate level students</t>
-  </si>
-  <si>
-    <t>What is the total number of part-time instructional faculty in stand-alone graduate/professional programs in which instructional faculty teach virtually only graduate level students</t>
-  </si>
-  <si>
     <t>What is the student to faculty ratio at Rose-Hulman?</t>
   </si>
   <si>
@@ -1624,7 +1555,162 @@
     <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
   </si>
   <si>
-    <t>The percentage of students with</t>
+    <t>How many freshman student submitted ACT</t>
+  </si>
+  <si>
+    <t>How many freshman student submitted SAT</t>
+  </si>
+  <si>
+    <t>What is the percent of freshman students submitting SAT</t>
+  </si>
+  <si>
+    <t>What is the percent of freshman students submitting ACT</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 4.00?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 3.75 and 3.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 3.50 and 3.74?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 3.25 and 3.49?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 3.00 and 3.24?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 2.50 and 2.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 2.00 and 2.49?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between 1.00 and 1.99?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa between below 1.00?</t>
+  </si>
+  <si>
+    <t>What is the average high school gpa for freshman students who submitted gpa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the percentage of freshman students who submitted gpa?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students in the top tenth of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students in the top quarter of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students in the top half of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students in the bottom half of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students in the bottom quarter of their high school graduating class?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students who submitted high school class rank?</t>
+  </si>
+  <si>
+    <t>(xor {The percentage of freshman students with gpa (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The average high school gpa for freshman student who submitted gpa is 4.02</t>
+  </si>
+  <si>
+    <t>The percentage of freshman students who submitted gpa is 94.9 % (504/531)</t>
+  </si>
+  <si>
+    <t>The percentage of freshman students in the [class_rank] of their high school graduating class is &lt;value?</t>
+  </si>
+  <si>
+    <t>What is the average need-based loan for students who were awarded any need-based self-help aid?</t>
+  </si>
+  <si>
+    <t>The total number of [enrollment_status] instructional faculty who are [gender] is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The total number of [enrollment_status] instructional faculty who have a [degree_level] degree is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty who are members of minority groups?</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty who are members of minority groups?</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time instructional faculty who are nonresident aliens?</t>
+  </si>
+  <si>
+    <t>What is the total number of part-time instructional faculty who are nonresident aliens?</t>
+  </si>
+  <si>
+    <t>The total number of [enrollment_status] instructional faculty who are (xor {member of [*minority] group} {nonresident alien})   is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The student to faculty ratio at Rose-Hulman is 10 to 1</t>
+  </si>
+  <si>
+    <t>What is the total number of full-time and part-time instructional faculty in stand-alone graduate/professional programs in which instructional faculty teach virtually only graduate level students</t>
+  </si>
+  <si>
+    <t>There are no full-time or part-time faculty in stand-alone
+graduate/professional programs in which faculty teach virtually only graduate-level
+students at Rose-Hulman</t>
+  </si>
+  <si>
+    <t>What is the average class size at Rose-Hulman?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 2 - 9 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 10 - 19 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 20 - 29 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 30 - 39 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 40 - 49 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 50 - 99 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class sections with 100 or more students?</t>
+  </si>
+  <si>
+    <t>The average class size at Rose-Hulman Is 16</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 2 - 9 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 10 - 19 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 20 - 29 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 30 - 39 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 40 - 49 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 50 - 99 students?</t>
+  </si>
+  <si>
+    <t>What is the number of class subsections with 100 or more students?</t>
   </si>
 </sst>
 </file>
@@ -2021,195 +2107,195 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2241,103 +2327,103 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2369,152 +2455,152 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2550,103 +2636,103 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2745,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,152 +2764,152 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2836,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2943,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>495</v>
       </c>
       <c r="B2" s="4">
         <v>350</v>
@@ -2865,7 +2951,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="B3" s="4">
         <v>296</v>
@@ -2873,23 +2959,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>498</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>1270</v>
@@ -2897,7 +2983,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4">
         <v>610</v>
@@ -2905,7 +2991,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>650</v>
@@ -2913,15 +2999,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4">
         <v>1355</v>
@@ -2929,7 +3015,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <v>650</v>
@@ -2937,7 +3023,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>700</v>
@@ -2945,15 +3031,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>1440</v>
@@ -2961,7 +3047,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4">
         <v>700</v>
@@ -2969,7 +3055,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4">
         <v>760</v>
@@ -2977,7 +3063,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4">
         <v>1352</v>
@@ -2985,7 +3071,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>1352</v>
@@ -2993,7 +3079,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4">
         <v>652</v>
@@ -3001,7 +3087,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4">
         <v>700</v>
@@ -3009,15 +3095,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4">
         <v>27</v>
@@ -3025,7 +3111,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>28</v>
@@ -3033,7 +3119,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>26</v>
@@ -3041,15 +3127,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4">
         <v>31</v>
@@ -3057,7 +3143,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4">
         <v>31</v>
@@ -3065,7 +3151,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
         <v>31.5</v>
@@ -3073,15 +3159,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4">
         <v>33</v>
@@ -3089,7 +3175,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4">
         <v>34</v>
@@ -3097,7 +3183,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4">
         <v>35</v>
@@ -3105,15 +3191,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" s="4">
         <v>30</v>
@@ -3121,7 +3207,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4">
         <v>30</v>
@@ -3129,7 +3215,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4">
         <v>30</v>
@@ -3137,64 +3223,64 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3205,167 +3291,207 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
+        <v>270</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" t="s">
-        <v>258</v>
+        <v>271</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
+        <v>275</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3378,119 +3504,122 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>510</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>511</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>512</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>513</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>515</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
+        <v>274</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
+      <c r="A11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>258</v>
+      <c r="A12" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" t="s">
-        <v>258</v>
+      <c r="A13" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
+      <c r="A14" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3632,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3521,281 +3650,281 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3937,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3827,7 +3956,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -3835,7 +3964,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -3843,7 +3972,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -3851,7 +3980,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -3859,7 +3988,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -3867,7 +3996,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -3875,55 +4004,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +4065,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3954,75 +4083,75 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,7 +4187,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4066,7 +4195,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4074,7 +4203,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4082,7 +4211,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4090,7 +4219,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4098,7 +4227,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4106,7 +4235,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4114,7 +4243,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4122,7 +4251,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4130,7 +4259,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4138,7 +4267,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4146,7 +4275,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4154,7 +4283,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -4162,7 +4291,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -4170,7 +4299,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4178,7 +4307,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -4186,7 +4315,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -4194,7 +4323,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -4202,7 +4331,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4210,7 +4339,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -4218,7 +4347,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
@@ -4226,7 +4355,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4234,7 +4363,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -4242,7 +4371,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -4250,7 +4379,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -4258,7 +4387,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -4266,7 +4395,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -4274,7 +4403,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -4282,55 +4411,55 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4362,229 +4491,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4615,108 +4744,108 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4728,14 +4857,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4748,232 +4877,232 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4986,8 +5115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5005,228 +5134,228 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5236,152 +5365,250 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5391,152 +5618,250 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5545,11 +5870,124 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5568,22 +6006,88 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>473</v>
+        <v>451</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>474</v>
+        <v>452</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>475</v>
+        <v>453</v>
+      </c>
+      <c r="B4">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>476</v>
+        <v>454</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5591,12 +6095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5615,42 +6119,120 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>477</v>
+        <v>455</v>
+      </c>
+      <c r="B2">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>478</v>
+        <v>456</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>479</v>
+        <v>457</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>480</v>
+        <v>458</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>481</v>
+        <v>459</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>482</v>
+        <v>460</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>483</v>
+        <v>461</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>484</v>
+        <v>462</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5658,18 +6240,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5677,26 +6259,82 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>487</v>
+        <v>274</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5728,7 +6366,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B2">
         <v>226</v>
@@ -5736,7 +6374,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>104</v>
@@ -5744,7 +6382,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B4">
         <v>93</v>
@@ -5752,7 +6390,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <v>1295</v>
@@ -5760,7 +6398,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -5768,7 +6406,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B7">
         <v>127</v>
@@ -5776,7 +6414,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5784,7 +6422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B9">
         <v>99</v>
@@ -5792,7 +6430,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -5800,63 +6438,315 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +6779,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -5897,7 +6787,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -5905,7 +6795,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -5913,7 +6803,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -5921,7 +6811,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5929,7 +6819,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -5937,7 +6827,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5945,7 +6835,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -5953,7 +6843,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -5961,63 +6851,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6049,202 +6939,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6455,26 +7345,26 @@
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6504,141 +7394,141 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B14" s="6"/>
     </row>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1E8CB-46CA-419C-906F-ECC65A770498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23197F5-AA25-4F38-833C-35838033DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="945" windowWidth="28800" windowHeight="20250" tabRatio="922" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -38,12 +38,13 @@
     <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId23"/>
     <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId24"/>
     <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId25"/>
-    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId26"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId27"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId30"/>
-    <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId31"/>
+    <sheet name="Annual expense" sheetId="33" r:id="rId26"/>
+    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId27"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId31"/>
+    <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="581">
   <si>
     <t>Answer</t>
   </si>
@@ -1711,6 +1712,108 @@
   </si>
   <si>
     <t>What is the number of class subsections with 100 or more students?</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>What is the URL of your institution's Net price calculator?</t>
+  </si>
+  <si>
+    <t>The Url of Rose-Hulman institution's net price calculator is : https://prod11gbss8.rose-hulman.edu/BanSS/RHIT_NPCALC.P_Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>What is the approximate date of the academic year tuition fee cost releaseing?</t>
+  </si>
+  <si>
+    <t>April 1</t>
+  </si>
+  <si>
+    <t>$1,035</t>
+  </si>
+  <si>
+    <t>$49,479</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>What is the required fee for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the first year private institution tuition fee cost for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>What is the Room and board fee for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$15,690</t>
+  </si>
+  <si>
+    <t>What is the Room fee only for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$9,441</t>
+  </si>
+  <si>
+    <t>What is the board fee only for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$6,249</t>
+  </si>
+  <si>
+    <t>Is there any other fee cost for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>Yes, Freshman Laptop $2,400 (First Fall Term for freshman only)</t>
+  </si>
+  <si>
+    <t>What is the number of credits a student can take for the stated full-time tuition</t>
+  </si>
+  <si>
+    <t>From 12 to 18</t>
+  </si>
+  <si>
+    <t>Does tuition and fee change by year of study?</t>
+  </si>
+  <si>
+    <t>Do tuition and fees changes by undergraduate instructional program?</t>
+  </si>
+  <si>
+    <t>What is the cost of book and supplies for Commuters?</t>
+  </si>
+  <si>
+    <t>What is the cost of book and supplies for residents?</t>
+  </si>
+  <si>
+    <t>What is the cost of room only for Commuters?</t>
+  </si>
+  <si>
+    <t>For commuters not living at home is $9,441</t>
+  </si>
+  <si>
+    <t>What is the cost of board only for Commuters?</t>
+  </si>
+  <si>
+    <t>For commuters  living at home is $900,and for commuters not living at home is $6,249</t>
+  </si>
+  <si>
+    <t>how much is other cost for residents?</t>
+  </si>
+  <si>
+    <t>$1,557</t>
+  </si>
+  <si>
+    <t>how much is other cost for commuters?</t>
+  </si>
+  <si>
+    <t>How much does a credit cost?</t>
+  </si>
+  <si>
+    <t>per-credit-hour charges $1,444</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1910,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2092,14 +2195,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2213,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>440</v>
       </c>
@@ -2121,7 +2224,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>473</v>
       </c>
@@ -2132,7 +2235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>442</v>
       </c>
@@ -2143,7 +2246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>441</v>
       </c>
@@ -2154,7 +2257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>443</v>
       </c>
@@ -2165,7 +2268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>444</v>
       </c>
@@ -2176,7 +2279,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>445</v>
       </c>
@@ -2187,7 +2290,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>480</v>
       </c>
@@ -2198,7 +2301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>446</v>
       </c>
@@ -2209,7 +2312,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>447</v>
       </c>
@@ -2220,7 +2323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>448</v>
       </c>
@@ -2231,7 +2334,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>449</v>
       </c>
@@ -2242,7 +2345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>450</v>
       </c>
@@ -2253,7 +2356,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>274</v>
       </c>
@@ -2261,12 +2364,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2274,7 +2377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2282,7 +2385,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2290,7 +2393,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2311,13 +2414,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2436,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2444,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2349,7 +2452,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2357,7 +2460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2365,7 +2468,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2373,7 +2476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -2381,12 +2484,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -2394,7 +2497,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -2402,7 +2505,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -2410,7 +2513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -2418,7 +2521,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -2439,13 +2542,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -2461,7 +2564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2469,7 +2572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2477,7 +2580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2485,7 +2588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2493,7 +2596,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2501,7 +2604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2509,7 +2612,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2517,7 +2620,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2525,7 +2628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +2636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2541,7 +2644,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2652,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>274</v>
       </c>
@@ -2557,13 +2660,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -2571,7 +2674,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2579,7 +2682,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2587,7 +2690,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2595,7 +2698,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2620,13 +2723,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
@@ -2642,7 +2745,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -2650,7 +2753,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
@@ -2658,7 +2761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -2666,7 +2769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
@@ -2674,7 +2777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -2682,7 +2785,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -2690,12 +2793,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -2703,7 +2806,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -2711,7 +2814,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -2719,7 +2822,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -2727,7 +2830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -2748,13 +2851,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2873,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -2778,7 +2881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2786,7 +2889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -2794,7 +2897,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2802,7 +2905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2810,7 +2913,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>212</v>
       </c>
@@ -2826,7 +2929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2937,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -2842,7 +2945,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -2850,7 +2953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2858,7 +2961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>274</v>
       </c>
@@ -2866,13 +2969,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -2880,7 +2983,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2888,7 +2991,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2896,7 +2999,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2904,7 +3007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2926,14 +3029,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="68.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
@@ -2949,7 +3052,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>496</v>
       </c>
@@ -2957,7 +3060,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>497</v>
       </c>
@@ -2965,7 +3068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>498</v>
       </c>
@@ -2973,7 +3076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +3084,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +3092,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2997,7 +3100,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,7 +3108,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3013,7 +3116,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -3021,7 +3124,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3029,7 +3132,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3037,7 +3140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3045,7 +3148,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -3053,7 +3156,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3061,7 +3164,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -3069,7 +3172,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3180,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3085,7 +3188,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3196,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -3101,7 +3204,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3117,7 +3220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3133,7 +3236,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3141,7 +3244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -3149,7 +3252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3157,7 +3260,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3165,7 +3268,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3181,7 +3284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -3189,7 +3292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -3197,7 +3300,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -3205,7 +3308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3213,7 +3316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3221,7 +3324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,7 +3332,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>274</v>
       </c>
@@ -3237,13 +3340,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>268</v>
       </c>
@@ -3251,7 +3354,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>270</v>
       </c>
@@ -3259,7 +3362,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>271</v>
       </c>
@@ -3267,7 +3370,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>275</v>
       </c>
@@ -3275,7 +3378,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>273</v>
       </c>
@@ -3297,14 +3400,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3418,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>499</v>
       </c>
@@ -3326,7 +3429,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -3337,7 +3440,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>501</v>
       </c>
@@ -3348,7 +3451,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>502</v>
       </c>
@@ -3359,7 +3462,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>503</v>
       </c>
@@ -3370,7 +3473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>504</v>
       </c>
@@ -3381,7 +3484,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>505</v>
       </c>
@@ -3392,7 +3495,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>506</v>
       </c>
@@ -3403,7 +3506,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>507</v>
       </c>
@@ -3414,7 +3517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>508</v>
       </c>
@@ -3425,7 +3528,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>509</v>
       </c>
@@ -3436,7 +3539,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>274</v>
       </c>
@@ -3444,13 +3547,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -3458,7 +3561,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -3466,7 +3569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -3474,7 +3577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>275</v>
       </c>
@@ -3482,7 +3585,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3490,7 +3593,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
@@ -3507,13 +3610,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3521,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>510</v>
       </c>
@@ -3529,7 +3632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>511</v>
       </c>
@@ -3537,7 +3640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>512</v>
       </c>
@@ -3545,7 +3648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>513</v>
       </c>
@@ -3553,7 +3656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>514</v>
       </c>
@@ -3561,7 +3664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>515</v>
       </c>
@@ -3569,7 +3672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -3577,12 +3680,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>268</v>
       </c>
@@ -3590,7 +3693,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>270</v>
       </c>
@@ -3598,7 +3701,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>271</v>
       </c>
@@ -3606,7 +3709,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>275</v>
       </c>
@@ -3614,7 +3717,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>273</v>
       </c>
@@ -3635,14 +3738,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3756,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3664,7 +3767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -3675,7 +3778,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>135</v>
       </c>
@@ -3683,7 +3786,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3694,7 +3797,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3808,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3819,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>138</v>
       </c>
@@ -3727,7 +3830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>139</v>
       </c>
@@ -3738,7 +3841,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>140</v>
       </c>
@@ -3749,7 +3852,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>141</v>
       </c>
@@ -3760,7 +3863,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>142</v>
       </c>
@@ -3771,7 +3874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>143</v>
       </c>
@@ -3782,7 +3885,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>144</v>
       </c>
@@ -3793,7 +3896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>145</v>
       </c>
@@ -3804,7 +3907,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>146</v>
       </c>
@@ -3815,7 +3918,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>147</v>
       </c>
@@ -3826,7 +3929,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -3837,7 +3940,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
@@ -3848,7 +3951,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -3859,7 +3962,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -3870,7 +3973,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
@@ -3881,7 +3984,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>274</v>
       </c>
@@ -3889,13 +3992,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>270</v>
       </c>
@@ -3903,7 +4006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
@@ -3911,7 +4014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>275</v>
       </c>
@@ -3919,7 +4022,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>273</v>
       </c>
@@ -3940,13 +4043,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3954,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
@@ -3962,7 +4065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>130</v>
       </c>
@@ -3970,7 +4073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>131</v>
       </c>
@@ -3978,7 +4081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>132</v>
       </c>
@@ -3986,7 +4089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
@@ -3994,7 +4097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
@@ -4002,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -4010,12 +4113,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -4023,7 +4126,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -4031,7 +4134,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -4039,7 +4142,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -4047,7 +4150,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -4068,14 +4171,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="74.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4086,7 +4189,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>466</v>
       </c>
@@ -4097,7 +4200,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>467</v>
       </c>
@@ -4108,7 +4211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>274</v>
       </c>
@@ -4116,13 +4219,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>270</v>
       </c>
@@ -4130,7 +4233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>271</v>
       </c>
@@ -4138,7 +4241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -4146,7 +4249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>273</v>
       </c>
@@ -4154,7 +4257,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
   </sheetData>
@@ -4171,13 +4274,13 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
@@ -4193,7 +4296,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
@@ -4201,7 +4304,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -4209,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
@@ -4217,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>281</v>
       </c>
@@ -4225,7 +4328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
@@ -4233,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>283</v>
       </c>
@@ -4241,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>284</v>
       </c>
@@ -4249,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>285</v>
       </c>
@@ -4257,7 +4360,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -4265,7 +4368,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>287</v>
       </c>
@@ -4273,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>288</v>
       </c>
@@ -4281,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
@@ -4289,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>290</v>
       </c>
@@ -4297,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>291</v>
       </c>
@@ -4305,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>292</v>
       </c>
@@ -4313,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>293</v>
       </c>
@@ -4321,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -4329,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>295</v>
       </c>
@@ -4337,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -4345,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>297</v>
       </c>
@@ -4353,7 +4456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>298</v>
       </c>
@@ -4361,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>299</v>
       </c>
@@ -4369,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>300</v>
       </c>
@@ -4377,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
@@ -4385,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>302</v>
       </c>
@@ -4393,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>303</v>
       </c>
@@ -4401,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>304</v>
       </c>
@@ -4409,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>274</v>
       </c>
@@ -4417,12 +4520,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -4430,7 +4533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>270</v>
       </c>
@@ -4438,7 +4541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>271</v>
       </c>
@@ -4446,7 +4549,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>275</v>
       </c>
@@ -4454,7 +4557,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -4476,14 +4579,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="131.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4494,7 +4597,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -4505,7 +4608,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>172</v>
       </c>
@@ -4516,7 +4619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -4527,7 +4630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>174</v>
       </c>
@@ -4538,7 +4641,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -4549,7 +4652,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -4560,7 +4663,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -4571,7 +4674,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -4582,7 +4685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -4593,7 +4696,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -4604,7 +4707,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -4615,7 +4718,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>194</v>
       </c>
@@ -4626,7 +4729,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>195</v>
       </c>
@@ -4637,7 +4740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>196</v>
       </c>
@@ -4648,7 +4751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -4659,7 +4762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>197</v>
       </c>
@@ -4670,7 +4773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -4678,13 +4781,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -4692,7 +4795,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -4700,7 +4803,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -4708,7 +4811,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -4729,14 +4832,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4747,7 +4850,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>203</v>
       </c>
@@ -4758,7 +4861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
@@ -4769,7 +4872,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>205</v>
       </c>
@@ -4780,7 +4883,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -4791,7 +4894,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>213</v>
       </c>
@@ -4802,7 +4905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>274</v>
       </c>
@@ -4810,13 +4913,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -4824,7 +4927,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -4832,7 +4935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -4840,7 +4943,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -4861,13 +4964,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="37" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4875,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>335</v>
       </c>
@@ -4883,7 +4986,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>336</v>
       </c>
@@ -4891,7 +4994,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>337</v>
       </c>
@@ -4899,7 +5002,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>338</v>
       </c>
@@ -4907,7 +5010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>339</v>
       </c>
@@ -4915,7 +5018,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>340</v>
       </c>
@@ -4923,7 +5026,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>341</v>
       </c>
@@ -4931,7 +5034,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>342</v>
       </c>
@@ -4939,7 +5042,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>343</v>
       </c>
@@ -4947,7 +5050,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>344</v>
       </c>
@@ -4955,7 +5058,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>345</v>
       </c>
@@ -4963,7 +5066,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>346</v>
       </c>
@@ -4971,7 +5074,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>408</v>
       </c>
@@ -4979,7 +5082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>347</v>
       </c>
@@ -4987,7 +5090,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>409</v>
       </c>
@@ -4995,7 +5098,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>348</v>
       </c>
@@ -5003,7 +5106,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>349</v>
       </c>
@@ -5011,7 +5114,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>350</v>
       </c>
@@ -5019,7 +5122,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>351</v>
       </c>
@@ -5027,7 +5130,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>410</v>
       </c>
@@ -5035,7 +5138,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>411</v>
       </c>
@@ -5043,7 +5146,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>412</v>
       </c>
@@ -5051,7 +5154,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>413</v>
       </c>
@@ -5059,7 +5162,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>274</v>
       </c>
@@ -5067,13 +5170,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>270</v>
       </c>
@@ -5081,7 +5184,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>271</v>
       </c>
@@ -5089,7 +5192,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>275</v>
       </c>
@@ -5097,7 +5200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>273</v>
       </c>
@@ -5119,14 +5222,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5240,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>464</v>
       </c>
@@ -5148,7 +5251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>352</v>
       </c>
@@ -5159,7 +5262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>353</v>
       </c>
@@ -5170,7 +5273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>354</v>
       </c>
@@ -5181,7 +5284,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>355</v>
       </c>
@@ -5192,7 +5295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>356</v>
       </c>
@@ -5203,7 +5306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>357</v>
       </c>
@@ -5214,7 +5317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>358</v>
       </c>
@@ -5225,7 +5328,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>359</v>
       </c>
@@ -5236,7 +5339,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>360</v>
       </c>
@@ -5247,7 +5350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>361</v>
       </c>
@@ -5258,7 +5361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>367</v>
       </c>
@@ -5269,7 +5372,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>363</v>
       </c>
@@ -5280,7 +5383,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>366</v>
       </c>
@@ -5291,7 +5394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>364</v>
       </c>
@@ -5302,7 +5405,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>365</v>
       </c>
@@ -5313,7 +5416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5321,12 +5424,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5334,7 +5437,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5342,7 +5445,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5350,7 +5453,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5371,14 +5474,14 @@
       <selection activeCell="A18" sqref="A18:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5492,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>368</v>
       </c>
@@ -5400,7 +5503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>369</v>
       </c>
@@ -5411,7 +5514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>370</v>
       </c>
@@ -5422,7 +5525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>371</v>
       </c>
@@ -5433,7 +5536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>372</v>
       </c>
@@ -5444,7 +5547,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>373</v>
       </c>
@@ -5455,7 +5558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>374</v>
       </c>
@@ -5466,7 +5569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>375</v>
       </c>
@@ -5477,7 +5580,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>376</v>
       </c>
@@ -5488,7 +5591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>377</v>
       </c>
@@ -5499,7 +5602,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>378</v>
       </c>
@@ -5510,7 +5613,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>520</v>
       </c>
@@ -5521,7 +5624,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>379</v>
       </c>
@@ -5532,7 +5635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>380</v>
       </c>
@@ -5543,7 +5646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>381</v>
       </c>
@@ -5554,7 +5657,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>382</v>
       </c>
@@ -5565,7 +5668,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5573,13 +5676,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5587,7 +5690,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5595,7 +5698,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5603,7 +5706,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5620,18 +5723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5642,18 +5743,18 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="4">
-        <v>6</v>
+      <c r="B2" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>384</v>
       </c>
@@ -5664,7 +5765,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>385</v>
       </c>
@@ -5675,7 +5776,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>386</v>
       </c>
@@ -5686,7 +5787,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>387</v>
       </c>
@@ -5697,7 +5798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>388</v>
       </c>
@@ -5708,7 +5809,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>389</v>
       </c>
@@ -5719,7 +5820,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>390</v>
       </c>
@@ -5730,7 +5831,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>391</v>
       </c>
@@ -5741,7 +5842,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>392</v>
       </c>
@@ -5752,7 +5853,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>393</v>
       </c>
@@ -5763,7 +5864,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>362</v>
       </c>
@@ -5774,7 +5875,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>394</v>
       </c>
@@ -5785,7 +5886,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>395</v>
       </c>
@@ -5796,7 +5897,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>396</v>
       </c>
@@ -5807,7 +5908,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>397</v>
       </c>
@@ -5818,7 +5919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5826,13 +5927,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5840,7 +5941,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5848,7 +5949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5856,7 +5957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5870,6 +5971,236 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B4A492-8EC4-4B06-9E53-74D662A1FFD0}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -5877,13 +6208,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5891,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>523</v>
       </c>
@@ -5899,7 +6230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>524</v>
       </c>
@@ -5907,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>525</v>
       </c>
@@ -5915,7 +6246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>526</v>
       </c>
@@ -5923,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>274</v>
       </c>
@@ -5931,13 +6262,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>268</v>
       </c>
@@ -5945,7 +6276,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -5953,7 +6284,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -5961,7 +6292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -5969,7 +6300,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -5982,7 +6313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -5990,13 +6321,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>451</v>
       </c>
@@ -6012,7 +6343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>452</v>
       </c>
@@ -6020,7 +6351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>453</v>
       </c>
@@ -6028,7 +6359,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>454</v>
       </c>
@@ -6036,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>274</v>
       </c>
@@ -6044,13 +6375,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>268</v>
       </c>
@@ -6058,7 +6389,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -6066,7 +6397,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -6074,7 +6405,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -6082,7 +6413,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -6095,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -6103,13 +6434,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6117,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>455</v>
       </c>
@@ -6125,7 +6456,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>456</v>
       </c>
@@ -6133,7 +6464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>457</v>
       </c>
@@ -6141,7 +6472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>458</v>
       </c>
@@ -6149,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>459</v>
       </c>
@@ -6157,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>460</v>
       </c>
@@ -6165,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>461</v>
       </c>
@@ -6173,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>462</v>
       </c>
@@ -6181,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -6189,13 +6520,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>268</v>
       </c>
@@ -6203,7 +6534,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>270</v>
       </c>
@@ -6211,7 +6542,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -6219,7 +6550,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>275</v>
       </c>
@@ -6227,113 +6558,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6350,13 +6579,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="1" max="1" width="82.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>306</v>
       </c>
@@ -6372,7 +6601,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>308</v>
       </c>
@@ -6380,7 +6609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>310</v>
       </c>
@@ -6388,7 +6617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>312</v>
       </c>
@@ -6396,7 +6625,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
@@ -6404,7 +6633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>316</v>
       </c>
@@ -6412,7 +6641,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -6420,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>320</v>
       </c>
@@ -6428,7 +6657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>322</v>
       </c>
@@ -6436,7 +6665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>274</v>
       </c>
@@ -6444,12 +6673,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -6457,7 +6686,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
@@ -6465,7 +6694,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -6473,7 +6702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>275</v>
       </c>
@@ -6481,7 +6710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>273</v>
       </c>
@@ -6489,7 +6718,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>325</v>
       </c>
@@ -6503,6 +6732,108 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -6510,13 +6841,13 @@
       <selection activeCell="A12" sqref="A12:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6524,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>531</v>
       </c>
@@ -6532,7 +6863,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>532</v>
       </c>
@@ -6540,7 +6871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>533</v>
       </c>
@@ -6548,7 +6879,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>534</v>
       </c>
@@ -6556,7 +6887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>535</v>
       </c>
@@ -6564,7 +6895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>536</v>
       </c>
@@ -6572,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>537</v>
       </c>
@@ -6580,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -6588,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -6596,13 +6927,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>270</v>
       </c>
@@ -6610,7 +6941,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>271</v>
       </c>
@@ -6618,7 +6949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>275</v>
       </c>
@@ -6626,7 +6957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
@@ -6639,21 +6970,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6661,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>540</v>
       </c>
@@ -6669,7 +7000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>541</v>
       </c>
@@ -6677,7 +7008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>542</v>
       </c>
@@ -6685,7 +7016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>543</v>
       </c>
@@ -6693,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>544</v>
       </c>
@@ -6701,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>545</v>
       </c>
@@ -6709,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>546</v>
       </c>
@@ -6717,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -6725,7 +7056,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -6733,7 +7064,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -6741,7 +7072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -6762,14 +7093,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6777,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>305</v>
       </c>
@@ -6785,7 +7116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
@@ -6793,7 +7124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>309</v>
       </c>
@@ -6801,7 +7132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>311</v>
       </c>
@@ -6809,7 +7140,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>313</v>
       </c>
@@ -6817,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>315</v>
       </c>
@@ -6825,7 +7156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>317</v>
       </c>
@@ -6833,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>319</v>
       </c>
@@ -6841,7 +7172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
@@ -6849,7 +7180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>274</v>
       </c>
@@ -6857,12 +7188,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -6870,7 +7201,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
@@ -6878,7 +7209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -6886,7 +7217,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>275</v>
       </c>
@@ -6894,7 +7225,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>273</v>
       </c>
@@ -6902,7 +7233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>325</v>
       </c>
@@ -6923,13 +7254,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6937,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>237</v>
       </c>
@@ -6945,7 +7276,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>239</v>
       </c>
@@ -6953,7 +7284,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>241</v>
       </c>
@@ -6961,7 +7292,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>243</v>
       </c>
@@ -6969,7 +7300,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>326</v>
       </c>
@@ -6977,7 +7308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>245</v>
       </c>
@@ -6985,7 +7316,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
@@ -6993,7 +7324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>248</v>
       </c>
@@ -7001,7 +7332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>249</v>
       </c>
@@ -7009,7 +7340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>251</v>
       </c>
@@ -7017,7 +7348,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -7025,7 +7356,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>255</v>
       </c>
@@ -7033,7 +7364,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>257</v>
       </c>
@@ -7041,7 +7372,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>259</v>
       </c>
@@ -7049,7 +7380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>261</v>
       </c>
@@ -7057,7 +7388,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>263</v>
       </c>
@@ -7065,7 +7396,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>264</v>
       </c>
@@ -7073,7 +7404,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>266</v>
       </c>
@@ -7081,7 +7412,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>274</v>
       </c>
@@ -7089,7 +7420,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>269</v>
       </c>
@@ -7097,7 +7428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>268</v>
       </c>
@@ -7105,7 +7436,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -7113,7 +7444,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -7121,7 +7452,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>275</v>
       </c>
@@ -7129,7 +7460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
@@ -7149,7 +7480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,7 +7494,7 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7177,13 +7508,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7191,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7199,7 +7530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7207,7 +7538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7215,7 +7546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7231,7 +7562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7239,7 +7570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7247,7 +7578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -7255,7 +7586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7271,7 +7602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7279,7 +7610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7287,7 +7618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7295,7 +7626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7303,7 +7634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7311,7 +7642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -7319,7 +7650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7327,7 +7658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7335,7 +7666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7343,7 +7674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>274</v>
       </c>
@@ -7351,7 +7682,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="388.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>269</v>
       </c>
@@ -7359,7 +7690,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -7381,12 +7712,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="58.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="58.88671875" style="5"/>
+    <col min="1" max="16384" width="58.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7397,7 +7728,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -7408,7 +7739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>216</v>
       </c>
@@ -7419,7 +7750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>218</v>
       </c>
@@ -7430,7 +7761,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>220</v>
       </c>
@@ -7441,7 +7772,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>222</v>
       </c>
@@ -7452,7 +7783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>224</v>
       </c>
@@ -7463,7 +7794,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>226</v>
       </c>
@@ -7474,7 +7805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>228</v>
       </c>
@@ -7485,7 +7816,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>230</v>
       </c>
@@ -7496,7 +7827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>232</v>
       </c>
@@ -7507,7 +7838,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>234</v>
       </c>
@@ -7518,7 +7849,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>274</v>
       </c>
@@ -7526,7 +7857,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>269</v>
       </c>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1E8CB-46CA-419C-906F-ECC65A770498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214BE5A-8B83-4913-B32D-F7C4DACACEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="9255" windowWidth="28800" windowHeight="15435" tabRatio="922" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId29"/>
     <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId30"/>
     <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId31"/>
+    <sheet name="degree conferred" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="562">
   <si>
     <t>Answer</t>
   </si>
@@ -1711,6 +1712,51 @@
   </si>
   <si>
     <t>What is the number of class subsections with 100 or more students?</t>
+  </si>
+  <si>
+    <t>How many Computer and information scienses degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 15.7% bachelor's degrees conferred are Computer and information scienses, CIP is 11</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>How many Engineering degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 73.1% bachelor's degrees conferred are Engineering , CIP is 14</t>
+  </si>
+  <si>
+    <t>How many Biological/life sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 2.2% bachelor's degrees conferred are  Biological/life sciences , CIP is 26</t>
+  </si>
+  <si>
+    <t>How many Mathematics and statistics degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 5.2% bachelor's degrees conferred are Mathematics and statistics, CIP is 27</t>
+  </si>
+  <si>
+    <t>How many Interdisciplinary studies degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 0.7% bachelor's degrees conferred are Interdisciplinary studies, CIP is 30</t>
+  </si>
+  <si>
+    <t>How many Physical sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 3.0% bachelor's degrees conferred are Physical sciences, CIP is 40</t>
+  </si>
+  <si>
+    <t>How many Social sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 0.2% bachelor's degrees conferred are Social sciences, CIP is 45</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1853,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2092,14 +2138,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2156,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>440</v>
       </c>
@@ -2121,7 +2167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>473</v>
       </c>
@@ -2132,7 +2178,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>442</v>
       </c>
@@ -2143,7 +2189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>441</v>
       </c>
@@ -2154,7 +2200,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>443</v>
       </c>
@@ -2165,7 +2211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>444</v>
       </c>
@@ -2176,7 +2222,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>445</v>
       </c>
@@ -2187,7 +2233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>480</v>
       </c>
@@ -2198,7 +2244,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>446</v>
       </c>
@@ -2209,7 +2255,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>447</v>
       </c>
@@ -2220,7 +2266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>448</v>
       </c>
@@ -2231,7 +2277,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>449</v>
       </c>
@@ -2242,7 +2288,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>450</v>
       </c>
@@ -2253,7 +2299,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>274</v>
       </c>
@@ -2261,12 +2307,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2274,7 +2320,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2282,7 +2328,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2290,7 +2336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2311,13 +2357,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2349,7 +2395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2357,7 +2403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2365,7 +2411,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2373,7 +2419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -2381,12 +2427,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -2394,7 +2440,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -2402,7 +2448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -2410,7 +2456,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -2418,7 +2464,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -2439,13 +2485,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -2461,7 +2507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2469,7 +2515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2477,7 +2523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2485,7 +2531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2493,7 +2539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2501,7 +2547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2509,7 +2555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2517,7 +2563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2525,7 +2571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +2579,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2541,7 +2587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2595,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>274</v>
       </c>
@@ -2557,13 +2603,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -2571,7 +2617,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2579,7 +2625,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2587,7 +2633,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2595,7 +2641,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2620,13 +2666,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
@@ -2642,7 +2688,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -2650,7 +2696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
@@ -2658,7 +2704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -2666,7 +2712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
@@ -2674,7 +2720,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -2682,7 +2728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -2690,12 +2736,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -2703,7 +2749,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -2711,7 +2757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -2719,7 +2765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -2727,7 +2773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -2748,13 +2794,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2816,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -2778,7 +2824,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2786,7 +2832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -2794,7 +2840,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2802,7 +2848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2810,7 +2856,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>212</v>
       </c>
@@ -2826,7 +2872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2880,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -2842,7 +2888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -2850,7 +2896,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2858,7 +2904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>274</v>
       </c>
@@ -2866,13 +2912,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -2880,7 +2926,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>270</v>
       </c>
@@ -2888,7 +2934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>271</v>
       </c>
@@ -2896,7 +2942,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>275</v>
       </c>
@@ -2904,7 +2950,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -2926,14 +2972,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="68.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
@@ -2949,7 +2995,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>496</v>
       </c>
@@ -2957,7 +3003,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>497</v>
       </c>
@@ -2965,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>498</v>
       </c>
@@ -2973,7 +3019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +3027,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +3035,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2997,7 +3043,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,7 +3051,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3013,7 +3059,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -3021,7 +3067,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3029,7 +3075,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3037,7 +3083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3045,7 +3091,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -3053,7 +3099,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3061,7 +3107,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -3069,7 +3115,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3123,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3085,7 +3131,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3139,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -3101,7 +3147,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3117,7 +3163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3133,7 +3179,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3141,7 +3187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -3149,7 +3195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3157,7 +3203,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3165,7 +3211,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3181,7 +3227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -3189,7 +3235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -3197,7 +3243,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -3205,7 +3251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3213,7 +3259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3221,7 +3267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,7 +3275,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>274</v>
       </c>
@@ -3237,13 +3283,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>268</v>
       </c>
@@ -3251,7 +3297,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>270</v>
       </c>
@@ -3259,7 +3305,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>271</v>
       </c>
@@ -3267,7 +3313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>275</v>
       </c>
@@ -3275,7 +3321,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>273</v>
       </c>
@@ -3297,14 +3343,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3361,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>499</v>
       </c>
@@ -3326,7 +3372,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -3337,7 +3383,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>501</v>
       </c>
@@ -3348,7 +3394,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>502</v>
       </c>
@@ -3359,7 +3405,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>503</v>
       </c>
@@ -3370,7 +3416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>504</v>
       </c>
@@ -3381,7 +3427,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>505</v>
       </c>
@@ -3392,7 +3438,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>506</v>
       </c>
@@ -3403,7 +3449,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>507</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>508</v>
       </c>
@@ -3425,7 +3471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>509</v>
       </c>
@@ -3436,7 +3482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>274</v>
       </c>
@@ -3444,13 +3490,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -3458,7 +3504,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -3466,7 +3512,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -3474,7 +3520,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>275</v>
       </c>
@@ -3482,7 +3528,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3490,7 +3536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
@@ -3507,13 +3553,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3521,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>510</v>
       </c>
@@ -3529,7 +3575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>511</v>
       </c>
@@ -3537,7 +3583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>512</v>
       </c>
@@ -3545,7 +3591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>513</v>
       </c>
@@ -3553,7 +3599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>514</v>
       </c>
@@ -3561,7 +3607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>515</v>
       </c>
@@ -3569,7 +3615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -3577,12 +3623,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>268</v>
       </c>
@@ -3590,7 +3636,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>270</v>
       </c>
@@ -3598,7 +3644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>271</v>
       </c>
@@ -3606,7 +3652,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>275</v>
       </c>
@@ -3614,7 +3660,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>273</v>
       </c>
@@ -3635,14 +3681,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3664,7 +3710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -3675,7 +3721,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>135</v>
       </c>
@@ -3683,7 +3729,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3694,7 +3740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>138</v>
       </c>
@@ -3727,7 +3773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>139</v>
       </c>
@@ -3738,7 +3784,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>140</v>
       </c>
@@ -3749,7 +3795,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>141</v>
       </c>
@@ -3760,7 +3806,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>142</v>
       </c>
@@ -3771,7 +3817,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>143</v>
       </c>
@@ -3782,7 +3828,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>144</v>
       </c>
@@ -3793,7 +3839,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>145</v>
       </c>
@@ -3804,7 +3850,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>146</v>
       </c>
@@ -3815,7 +3861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>147</v>
       </c>
@@ -3826,7 +3872,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -3837,7 +3883,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
@@ -3848,7 +3894,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -3859,7 +3905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -3870,7 +3916,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
@@ -3881,7 +3927,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>274</v>
       </c>
@@ -3889,13 +3935,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>270</v>
       </c>
@@ -3903,7 +3949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
@@ -3911,7 +3957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>275</v>
       </c>
@@ -3919,7 +3965,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>273</v>
       </c>
@@ -3940,13 +3986,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3954,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
@@ -3962,7 +4008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>130</v>
       </c>
@@ -3970,7 +4016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>131</v>
       </c>
@@ -3978,7 +4024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>132</v>
       </c>
@@ -3986,7 +4032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
@@ -3994,7 +4040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
@@ -4002,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>274</v>
       </c>
@@ -4010,12 +4056,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
@@ -4023,7 +4069,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>270</v>
       </c>
@@ -4031,7 +4077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -4039,7 +4085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>275</v>
       </c>
@@ -4047,7 +4093,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -4068,14 +4114,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="74.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4086,7 +4132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>466</v>
       </c>
@@ -4097,7 +4143,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>467</v>
       </c>
@@ -4108,7 +4154,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>274</v>
       </c>
@@ -4116,13 +4162,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>270</v>
       </c>
@@ -4130,7 +4176,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>271</v>
       </c>
@@ -4138,7 +4184,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -4146,7 +4192,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>273</v>
       </c>
@@ -4154,7 +4200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
   </sheetData>
@@ -4171,13 +4217,13 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
@@ -4193,7 +4239,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
@@ -4201,7 +4247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -4209,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
@@ -4217,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>281</v>
       </c>
@@ -4225,7 +4271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
@@ -4233,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>283</v>
       </c>
@@ -4241,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>284</v>
       </c>
@@ -4249,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>285</v>
       </c>
@@ -4257,7 +4303,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -4265,7 +4311,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>287</v>
       </c>
@@ -4273,7 +4319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>288</v>
       </c>
@@ -4281,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
@@ -4289,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>290</v>
       </c>
@@ -4297,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>291</v>
       </c>
@@ -4305,7 +4351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>292</v>
       </c>
@@ -4313,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>293</v>
       </c>
@@ -4321,7 +4367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -4329,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>295</v>
       </c>
@@ -4337,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -4345,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>297</v>
       </c>
@@ -4353,7 +4399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>298</v>
       </c>
@@ -4361,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>299</v>
       </c>
@@ -4369,7 +4415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>300</v>
       </c>
@@ -4377,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
@@ -4385,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>302</v>
       </c>
@@ -4393,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>303</v>
       </c>
@@ -4401,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>304</v>
       </c>
@@ -4409,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>274</v>
       </c>
@@ -4417,12 +4463,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -4430,7 +4476,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>270</v>
       </c>
@@ -4438,7 +4484,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>271</v>
       </c>
@@ -4446,7 +4492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>275</v>
       </c>
@@ -4454,7 +4500,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -4476,14 +4522,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="131.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4494,7 +4540,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -4505,7 +4551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>172</v>
       </c>
@@ -4516,7 +4562,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -4527,7 +4573,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>174</v>
       </c>
@@ -4538,7 +4584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -4549,7 +4595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -4560,7 +4606,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -4571,7 +4617,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -4582,7 +4628,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -4593,7 +4639,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -4604,7 +4650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -4615,7 +4661,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>194</v>
       </c>
@@ -4626,7 +4672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>195</v>
       </c>
@@ -4637,7 +4683,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>196</v>
       </c>
@@ -4648,7 +4694,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -4659,7 +4705,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>197</v>
       </c>
@@ -4670,7 +4716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -4678,13 +4724,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -4692,7 +4738,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -4700,7 +4746,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -4708,7 +4754,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -4729,14 +4775,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4747,7 +4793,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>203</v>
       </c>
@@ -4758,7 +4804,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
@@ -4769,7 +4815,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>205</v>
       </c>
@@ -4780,7 +4826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -4791,7 +4837,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>213</v>
       </c>
@@ -4802,7 +4848,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>274</v>
       </c>
@@ -4810,13 +4856,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -4824,7 +4870,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -4832,7 +4878,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -4840,7 +4886,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -4861,13 +4907,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="37" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4875,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>335</v>
       </c>
@@ -4883,7 +4929,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>336</v>
       </c>
@@ -4891,7 +4937,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>337</v>
       </c>
@@ -4899,7 +4945,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>338</v>
       </c>
@@ -4907,7 +4953,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>339</v>
       </c>
@@ -4915,7 +4961,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>340</v>
       </c>
@@ -4923,7 +4969,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>341</v>
       </c>
@@ -4931,7 +4977,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>342</v>
       </c>
@@ -4939,7 +4985,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>343</v>
       </c>
@@ -4947,7 +4993,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>344</v>
       </c>
@@ -4955,7 +5001,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>345</v>
       </c>
@@ -4963,7 +5009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>346</v>
       </c>
@@ -4971,7 +5017,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>408</v>
       </c>
@@ -4979,7 +5025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>347</v>
       </c>
@@ -4987,7 +5033,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>409</v>
       </c>
@@ -4995,7 +5041,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>348</v>
       </c>
@@ -5003,7 +5049,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>349</v>
       </c>
@@ -5011,7 +5057,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>350</v>
       </c>
@@ -5019,7 +5065,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>351</v>
       </c>
@@ -5027,7 +5073,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>410</v>
       </c>
@@ -5035,7 +5081,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>411</v>
       </c>
@@ -5043,7 +5089,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>412</v>
       </c>
@@ -5051,7 +5097,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>413</v>
       </c>
@@ -5059,7 +5105,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>274</v>
       </c>
@@ -5067,13 +5113,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>270</v>
       </c>
@@ -5081,7 +5127,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>271</v>
       </c>
@@ -5089,7 +5135,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>275</v>
       </c>
@@ -5097,7 +5143,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>273</v>
       </c>
@@ -5119,14 +5165,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5183,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>464</v>
       </c>
@@ -5148,7 +5194,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>352</v>
       </c>
@@ -5159,7 +5205,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>353</v>
       </c>
@@ -5170,7 +5216,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>354</v>
       </c>
@@ -5181,7 +5227,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>355</v>
       </c>
@@ -5192,7 +5238,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>356</v>
       </c>
@@ -5203,7 +5249,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>357</v>
       </c>
@@ -5214,7 +5260,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>358</v>
       </c>
@@ -5225,7 +5271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>359</v>
       </c>
@@ -5236,7 +5282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>360</v>
       </c>
@@ -5247,7 +5293,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>361</v>
       </c>
@@ -5258,7 +5304,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>367</v>
       </c>
@@ -5269,7 +5315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>363</v>
       </c>
@@ -5280,7 +5326,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>366</v>
       </c>
@@ -5291,7 +5337,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>364</v>
       </c>
@@ -5302,7 +5348,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>365</v>
       </c>
@@ -5313,7 +5359,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5321,12 +5367,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5334,7 +5380,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5342,7 +5388,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5350,7 +5396,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5371,14 +5417,14 @@
       <selection activeCell="A18" sqref="A18:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5435,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>368</v>
       </c>
@@ -5400,7 +5446,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>369</v>
       </c>
@@ -5411,7 +5457,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>370</v>
       </c>
@@ -5422,7 +5468,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>371</v>
       </c>
@@ -5433,7 +5479,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>372</v>
       </c>
@@ -5444,7 +5490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>373</v>
       </c>
@@ -5455,7 +5501,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>374</v>
       </c>
@@ -5466,7 +5512,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>375</v>
       </c>
@@ -5477,7 +5523,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>376</v>
       </c>
@@ -5488,7 +5534,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>377</v>
       </c>
@@ -5499,7 +5545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>378</v>
       </c>
@@ -5510,7 +5556,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>520</v>
       </c>
@@ -5521,7 +5567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>379</v>
       </c>
@@ -5532,7 +5578,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>380</v>
       </c>
@@ -5543,7 +5589,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>381</v>
       </c>
@@ -5554,7 +5600,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>382</v>
       </c>
@@ -5565,7 +5611,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5573,13 +5619,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5587,7 +5633,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5595,7 +5641,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5603,7 +5649,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5624,14 +5670,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5642,7 +5688,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>383</v>
       </c>
@@ -5653,7 +5699,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>384</v>
       </c>
@@ -5664,7 +5710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>385</v>
       </c>
@@ -5675,7 +5721,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>386</v>
       </c>
@@ -5686,7 +5732,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>387</v>
       </c>
@@ -5697,7 +5743,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>388</v>
       </c>
@@ -5708,7 +5754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>389</v>
       </c>
@@ -5719,7 +5765,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>390</v>
       </c>
@@ -5730,7 +5776,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>391</v>
       </c>
@@ -5741,7 +5787,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>392</v>
       </c>
@@ -5752,7 +5798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>393</v>
       </c>
@@ -5763,7 +5809,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>362</v>
       </c>
@@ -5774,7 +5820,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>394</v>
       </c>
@@ -5785,7 +5831,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>395</v>
       </c>
@@ -5796,7 +5842,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>396</v>
       </c>
@@ -5807,7 +5853,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>397</v>
       </c>
@@ -5818,7 +5864,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>274</v>
       </c>
@@ -5826,13 +5872,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
@@ -5840,7 +5886,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -5848,7 +5894,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -5856,7 +5902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>273</v>
       </c>
@@ -5877,13 +5923,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5891,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>523</v>
       </c>
@@ -5899,7 +5945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>524</v>
       </c>
@@ -5907,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>525</v>
       </c>
@@ -5915,7 +5961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>526</v>
       </c>
@@ -5923,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>274</v>
       </c>
@@ -5931,13 +5977,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>268</v>
       </c>
@@ -5945,7 +5991,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -5953,7 +5999,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -5961,7 +6007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -5969,7 +6015,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -5990,13 +6036,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>451</v>
       </c>
@@ -6012,7 +6058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>452</v>
       </c>
@@ -6020,7 +6066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>453</v>
       </c>
@@ -6028,7 +6074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>454</v>
       </c>
@@ -6036,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>274</v>
       </c>
@@ -6044,13 +6090,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>268</v>
       </c>
@@ -6058,7 +6104,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -6066,7 +6112,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -6074,7 +6120,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -6082,7 +6128,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
@@ -6103,13 +6149,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6117,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>455</v>
       </c>
@@ -6125,7 +6171,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>456</v>
       </c>
@@ -6133,7 +6179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>457</v>
       </c>
@@ -6141,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>458</v>
       </c>
@@ -6149,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>459</v>
       </c>
@@ -6157,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>460</v>
       </c>
@@ -6165,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>461</v>
       </c>
@@ -6173,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>462</v>
       </c>
@@ -6181,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -6189,13 +6235,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>268</v>
       </c>
@@ -6203,7 +6249,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>270</v>
       </c>
@@ -6211,7 +6257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -6219,7 +6265,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>275</v>
       </c>
@@ -6227,7 +6273,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
@@ -6245,17 +6291,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6312,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>529</v>
       </c>
@@ -6277,7 +6323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>463</v>
       </c>
@@ -6288,7 +6334,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>274</v>
       </c>
@@ -6299,13 +6345,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>270</v>
       </c>
@@ -6313,7 +6359,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>271</v>
       </c>
@@ -6321,7 +6367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -6329,7 +6375,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>273</v>
       </c>
@@ -6350,13 +6396,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="1" max="1" width="82.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>306</v>
       </c>
@@ -6372,7 +6418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>308</v>
       </c>
@@ -6380,7 +6426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>310</v>
       </c>
@@ -6388,7 +6434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>312</v>
       </c>
@@ -6396,7 +6442,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
@@ -6404,7 +6450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>316</v>
       </c>
@@ -6412,7 +6458,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -6420,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>320</v>
       </c>
@@ -6428,7 +6474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>322</v>
       </c>
@@ -6436,7 +6482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>274</v>
       </c>
@@ -6444,12 +6490,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -6457,7 +6503,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
@@ -6465,7 +6511,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -6473,7 +6519,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>275</v>
       </c>
@@ -6481,7 +6527,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>273</v>
       </c>
@@ -6489,7 +6535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>325</v>
       </c>
@@ -6510,13 +6556,13 @@
       <selection activeCell="A12" sqref="A12:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6524,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>531</v>
       </c>
@@ -6532,7 +6578,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>532</v>
       </c>
@@ -6540,7 +6586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>533</v>
       </c>
@@ -6548,7 +6594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>534</v>
       </c>
@@ -6556,7 +6602,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>535</v>
       </c>
@@ -6564,7 +6610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>536</v>
       </c>
@@ -6572,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>537</v>
       </c>
@@ -6580,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -6588,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
@@ -6596,13 +6642,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>270</v>
       </c>
@@ -6610,7 +6656,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>271</v>
       </c>
@@ -6618,7 +6664,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>275</v>
       </c>
@@ -6626,7 +6672,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
@@ -6643,17 +6689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6661,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>540</v>
       </c>
@@ -6669,7 +6715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>541</v>
       </c>
@@ -6677,7 +6723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>542</v>
       </c>
@@ -6685,7 +6731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>543</v>
       </c>
@@ -6693,7 +6739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>544</v>
       </c>
@@ -6701,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>545</v>
       </c>
@@ -6709,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>546</v>
       </c>
@@ -6717,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
@@ -6725,7 +6771,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
@@ -6733,7 +6779,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>275</v>
       </c>
@@ -6741,13 +6787,141 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>236</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D7D7B-C54E-4C31-A1FA-66984B9AFDE1}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6762,14 +6936,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6777,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>305</v>
       </c>
@@ -6785,7 +6959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
@@ -6793,7 +6967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>309</v>
       </c>
@@ -6801,7 +6975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>311</v>
       </c>
@@ -6809,7 +6983,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>313</v>
       </c>
@@ -6817,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>315</v>
       </c>
@@ -6825,7 +6999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>317</v>
       </c>
@@ -6833,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>319</v>
       </c>
@@ -6841,7 +7015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
@@ -6849,7 +7023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>274</v>
       </c>
@@ -6857,12 +7031,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -6870,7 +7044,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
@@ -6878,7 +7052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -6886,7 +7060,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>275</v>
       </c>
@@ -6894,7 +7068,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>273</v>
       </c>
@@ -6902,7 +7076,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>325</v>
       </c>
@@ -6923,13 +7097,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6937,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>237</v>
       </c>
@@ -6945,7 +7119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>239</v>
       </c>
@@ -6953,7 +7127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>241</v>
       </c>
@@ -6961,7 +7135,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>243</v>
       </c>
@@ -6969,7 +7143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>326</v>
       </c>
@@ -6977,7 +7151,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>245</v>
       </c>
@@ -6985,7 +7159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
@@ -6993,7 +7167,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>248</v>
       </c>
@@ -7001,7 +7175,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>249</v>
       </c>
@@ -7009,7 +7183,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>251</v>
       </c>
@@ -7017,7 +7191,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -7025,7 +7199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>255</v>
       </c>
@@ -7033,7 +7207,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>257</v>
       </c>
@@ -7041,7 +7215,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>259</v>
       </c>
@@ -7049,7 +7223,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>261</v>
       </c>
@@ -7057,7 +7231,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>263</v>
       </c>
@@ -7065,7 +7239,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>264</v>
       </c>
@@ -7073,7 +7247,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>266</v>
       </c>
@@ -7081,7 +7255,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>274</v>
       </c>
@@ -7089,7 +7263,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>269</v>
       </c>
@@ -7097,7 +7271,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>268</v>
       </c>
@@ -7105,7 +7279,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -7113,7 +7287,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -7121,7 +7295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>275</v>
       </c>
@@ -7129,7 +7303,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
@@ -7149,7 +7323,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,7 +7337,7 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7177,13 +7351,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7191,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7199,7 +7373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7207,7 +7381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7215,7 +7389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7231,7 +7405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7239,7 +7413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7247,7 +7421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -7255,7 +7429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7271,7 +7445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7279,7 +7453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7287,7 +7461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7295,7 +7469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7303,7 +7477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7311,7 +7485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -7319,7 +7493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7327,7 +7501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7335,7 +7509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7343,7 +7517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>274</v>
       </c>
@@ -7351,7 +7525,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="388.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>269</v>
       </c>
@@ -7359,7 +7533,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -7381,12 +7555,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="58.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="58.88671875" style="5"/>
+    <col min="1" max="16384" width="58.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7397,7 +7571,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -7408,7 +7582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>216</v>
       </c>
@@ -7419,7 +7593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>218</v>
       </c>
@@ -7430,7 +7604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>220</v>
       </c>
@@ -7441,7 +7615,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>222</v>
       </c>
@@ -7452,7 +7626,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>224</v>
       </c>
@@ -7463,7 +7637,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>226</v>
       </c>
@@ -7474,7 +7648,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>228</v>
       </c>
@@ -7485,7 +7659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>230</v>
       </c>
@@ -7496,7 +7670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>232</v>
       </c>
@@ -7507,7 +7681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>234</v>
       </c>
@@ -7518,7 +7692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>274</v>
       </c>
@@ -7526,7 +7700,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>269</v>
       </c>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1E8CB-46CA-419C-906F-ECC65A770498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F224507B-8D29-4DE6-B358-91830C6F1380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="545">
   <si>
     <t>Answer</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>1.0%</t>
   </si>
   <si>
-    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>Which needs-analysis methodology does your institution use in awarding institutional aid?</t>
   </si>
   <si>
@@ -1101,24 +1098,6 @@
     <t>What is the amount of non-need-based scholarship or grants from external sources awarded to students?</t>
   </si>
   <si>
-    <t>What is the amount of need-based student loan awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the amount of non-need-based student loan awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the amount of need-based federal work study awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the amount of need-based state and other work study awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the total amount of need-based self-help awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the total amount of non-need-based self-help awarded to students?</t>
-  </si>
-  <si>
     <t>What is the amount of need-based parent loans awarded to students?</t>
   </si>
   <si>
@@ -1293,12 +1272,6 @@
     <t>$771042</t>
   </si>
   <si>
-    <t>What is the amount of non-need-based federal work study awarded to students?</t>
-  </si>
-  <si>
-    <t>What is the amount of non-need-based state and other work study awarded to students?</t>
-  </si>
-  <si>
     <t>What is the amount of need-based tuition waiver aid awarded to students?</t>
   </si>
   <si>
@@ -1309,9 +1282,6 @@
   </si>
   <si>
     <t>What is the amount of non-based athletic award awarded to students?</t>
-  </si>
-  <si>
-    <t>$11462283</t>
   </si>
   <si>
     <t>$4938549</t>
@@ -1529,9 +1499,6 @@
   </si>
   <si>
     <t>Rose-Hulman offers bachelors and masters degree</t>
-  </si>
-  <si>
-    <t>The number ofdegree-seeking undergraduate (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
   </si>
   <si>
     <t>The number of degree-seeking first-time freshman  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
@@ -1711,6 +1678,33 @@
   </si>
   <si>
     <t>What is the number of class subsections with 100 or more students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based self-help student loan awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based self-help student loan awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based self-help federal work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based self-help federal work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of need-based state and other self-help work study awarded to students?</t>
+  </si>
+  <si>
+    <t>What is the amount of non-need-based state and other self-help work study awarded to students?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)) </t>
+  </si>
+  <si>
+    <t>The number of degree-seeking undergraduate (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1791,9 +1785,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1803,6 +1794,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,10 +2106,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -2123,10 +2117,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
         <v>198</v>
@@ -2134,10 +2128,10 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
         <v>198</v>
@@ -2145,10 +2139,10 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
         <v>198</v>
@@ -2156,10 +2150,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
         <v>198</v>
@@ -2167,10 +2161,10 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>198</v>
@@ -2178,10 +2172,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
@@ -2189,10 +2183,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
         <v>198</v>
@@ -2200,10 +2194,10 @@
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>482</v>
+        <v>436</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="C10" t="s">
         <v>198</v>
@@ -2211,10 +2205,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -2222,10 +2216,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
         <v>198</v>
@@ -2233,10 +2227,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
         <v>198</v>
@@ -2244,10 +2238,10 @@
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
         <v>198</v>
@@ -2391,7 +2385,7 @@
         <v>268</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2531,7 @@
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2568,7 +2562,7 @@
         <v>268</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2694,7 @@
         <v>268</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2877,7 +2871,7 @@
         <v>268</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2943,7 +2937,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B2" s="4">
         <v>350</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B3" s="4">
         <v>296</v>
@@ -2959,7 +2953,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
@@ -2967,7 +2961,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -3248,7 +3242,7 @@
         <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3317,7 +3311,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3328,7 +3322,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
@@ -3339,7 +3333,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
@@ -3350,7 +3344,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>101</v>
@@ -3361,7 +3355,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -3372,7 +3366,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>103</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
@@ -3394,7 +3388,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
@@ -3405,7 +3399,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>109</v>
@@ -3416,10 +3410,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -3427,10 +3421,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
         <v>198</v>
@@ -3455,7 +3449,7 @@
         <v>268</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3523,7 +3517,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -3531,7 +3525,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>123</v>
@@ -3539,7 +3533,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>124</v>
@@ -3547,7 +3541,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>125</v>
@@ -3555,7 +3549,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -3563,7 +3557,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -3583,15 +3577,15 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>268</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>270</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3599,7 +3593,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>271</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3607,7 +3601,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>275</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3615,7 +3609,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>273</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4020,7 +4014,7 @@
         <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4083,15 +4077,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -4099,10 +4093,10 @@
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
         <v>198</v>
@@ -4167,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4427,7 +4421,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>334</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4855,16 +4849,16 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37" style="6" customWidth="1"/>
+    <col min="1" max="1" width="83.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4875,233 +4869,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>350</v>
+      <c r="A19" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>351</v>
+      <c r="A20" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>418</v>
+      <c r="A23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26"/>
+      <c r="A26" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B29" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5115,7 +5101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -5139,7 +5125,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
@@ -5150,7 +5136,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
@@ -5161,7 +5147,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
@@ -5172,7 +5158,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
@@ -5183,7 +5169,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
@@ -5194,7 +5180,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
@@ -5205,7 +5191,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
@@ -5216,10 +5202,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
         <v>198</v>
@@ -5227,10 +5213,10 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
         <v>198</v>
@@ -5238,10 +5224,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -5249,10 +5235,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
         <v>198</v>
@@ -5260,10 +5246,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
         <v>198</v>
@@ -5271,10 +5257,10 @@
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>198</v>
@@ -5282,10 +5268,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
         <v>198</v>
@@ -5293,10 +5279,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>198</v>
@@ -5304,10 +5290,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
         <v>198</v>
@@ -5368,7 +5354,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5391,10 +5377,10 @@
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -5402,7 +5388,7 @@
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
@@ -5413,7 +5399,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
@@ -5424,7 +5410,7 @@
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
@@ -5435,7 +5421,7 @@
     </row>
     <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
@@ -5446,7 +5432,7 @@
     </row>
     <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
@@ -5457,7 +5443,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
@@ -5468,7 +5454,7 @@
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -5479,10 +5465,10 @@
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
         <v>198</v>
@@ -5490,10 +5476,10 @@
     </row>
     <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -5501,10 +5487,10 @@
     </row>
     <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
         <v>198</v>
@@ -5512,10 +5498,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
         <v>198</v>
@@ -5523,10 +5509,10 @@
     </row>
     <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
         <v>198</v>
@@ -5534,10 +5520,10 @@
     </row>
     <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
         <v>198</v>
@@ -5545,10 +5531,10 @@
     </row>
     <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>198</v>
@@ -5556,10 +5542,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
         <v>198</v>
@@ -5644,7 +5630,7 @@
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -5655,7 +5641,7 @@
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -5666,7 +5652,7 @@
     </row>
     <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>265</v>
@@ -5677,7 +5663,7 @@
     </row>
     <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>265</v>
@@ -5688,7 +5674,7 @@
     </row>
     <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -5699,7 +5685,7 @@
     </row>
     <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -5710,7 +5696,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -5721,10 +5707,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
         <v>198</v>
@@ -5732,10 +5718,10 @@
     </row>
     <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
         <v>198</v>
@@ -5743,10 +5729,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -5754,10 +5740,10 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
         <v>198</v>
@@ -5765,10 +5751,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
         <v>198</v>
@@ -5776,10 +5762,10 @@
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
         <v>198</v>
@@ -5787,10 +5773,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C15" t="s">
         <v>198</v>
@@ -5798,10 +5784,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>198</v>
@@ -5809,10 +5795,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
         <v>198</v>
@@ -5893,7 +5879,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -5901,7 +5887,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5909,7 +5895,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -5917,7 +5903,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5942,7 +5928,7 @@
         <v>268</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6006,7 +5992,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6014,7 +6000,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6022,7 +6008,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -6030,7 +6016,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6055,7 +6041,7 @@
         <v>268</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +6105,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -6127,7 +6113,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6135,7 +6121,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6143,7 +6129,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6151,7 +6137,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6159,7 +6145,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6167,7 +6153,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6175,7 +6161,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6200,7 +6186,7 @@
         <v>268</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6268,10 +6254,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -6279,10 +6265,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C3" t="s">
         <v>198</v>
@@ -6347,7 +6333,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6454,7 +6440,7 @@
         <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6526,15 +6512,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -6542,7 +6528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -6550,7 +6536,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -6558,7 +6544,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6566,7 +6552,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6574,7 +6560,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6582,7 +6568,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6643,8 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6663,7 +6649,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6671,7 +6657,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -6679,7 +6665,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6687,7 +6673,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6695,7 +6681,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6703,7 +6689,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6711,7 +6697,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6867,7 +6853,7 @@
         <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7102,7 +7088,7 @@
         <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7195,7 +7181,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7203,7 +7189,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7211,7 +7197,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7219,7 +7205,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7227,7 +7213,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7235,7 +7221,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7243,7 +7229,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7251,7 +7237,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7259,7 +7245,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7267,7 +7253,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7275,7 +7261,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7283,7 +7269,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7291,7 +7277,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7299,7 +7285,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7307,7 +7293,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7315,7 +7301,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7323,7 +7309,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7331,7 +7317,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7339,7 +7325,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7363,8 +7349,8 @@
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>489</v>
+      <c r="B23" s="10" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F224507B-8D29-4DE6-B358-91830C6F1380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0ADEF5-F9DA-4991-B94C-95CCC657018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -494,12 +494,6 @@
     <t>Does Rose-Hulman require statement of good standing to apply for transfer admission?</t>
   </si>
   <si>
-    <t>What is the minimum high school grade point average required  of transfer applicants?</t>
-  </si>
-  <si>
-    <t>What is the minimum college grade point average required of transfer applicants?</t>
-  </si>
-  <si>
     <t>When does Rose-Hulman review transfer student applications?</t>
   </si>
   <si>
@@ -1505,9 +1499,6 @@
   </si>
   <si>
     <t xml:space="preserve">(xor [academic_factor] [non_academic_factor]) is &lt;value&gt; in Rose-Hulman admission decisions </t>
-  </si>
-  <si>
-    <t>The (xor [aggregation] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The percentage of freshman students with sat composite score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
@@ -1705,6 +1696,15 @@
   </si>
   <si>
     <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The (xor [*percentage] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What is the minimum high school grade point average required for transfer admission?</t>
+  </si>
+  <si>
+    <t>What is the minimum college grade point average required for transfer admission?</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2101,195 +2101,195 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,55 +2369,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2430,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,56 +2545,56 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2678,55 +2678,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2801,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2814,7 +2814,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>109</v>
@@ -2854,56 +2854,56 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="105" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B2" s="4">
         <v>350</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B3" s="4">
         <v>296</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -2996,7 +2996,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,61 +3220,61 @@
         <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3306,182 +3306,182 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3517,7 +3517,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>123</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>124</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>125</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -3565,55 +3565,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3625,9 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3644,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3652,10 +3650,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3663,10 +3661,10 @@
         <v>127</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3674,18 +3672,18 @@
         <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3693,10 +3691,10 @@
         <v>136</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,10 +3702,10 @@
         <v>137</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,10 +3713,10 @@
         <v>138</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,10 +3724,10 @@
         <v>139</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,10 +3735,10 @@
         <v>140</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3748,177 +3746,177 @@
         <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>142</v>
+        <v>543</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>544</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3930,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3998,55 +3996,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +4056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4077,75 +4075,75 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>458</v>
-      </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4161,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4181,7 +4179,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4189,7 +4187,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4197,7 +4195,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4205,7 +4203,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4213,7 +4211,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4221,7 +4219,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4229,7 +4227,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4237,7 +4235,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4245,7 +4243,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4253,7 +4251,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4261,7 +4259,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4269,7 +4267,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4277,7 +4275,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -4285,7 +4283,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -4293,7 +4291,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4301,7 +4299,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -4309,7 +4307,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -4317,7 +4315,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -4325,7 +4323,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4333,7 +4331,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -4341,7 +4339,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
@@ -4349,7 +4347,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4357,7 +4355,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -4365,7 +4363,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -4373,7 +4371,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -4381,7 +4379,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -4389,7 +4387,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -4397,7 +4395,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -4405,55 +4403,55 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4485,229 +4483,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4718,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4738,108 +4736,108 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4851,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4871,224 +4869,224 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5101,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -5120,228 +5118,228 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5372,229 +5370,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5625,229 +5623,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5860,7 +5858,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5879,7 +5877,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -5887,7 +5885,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5895,7 +5893,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -5903,7 +5901,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5911,56 +5909,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5992,7 +5990,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6000,7 +5998,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6008,7 +6006,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -6016,7 +6014,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6024,56 +6022,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6105,7 +6103,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -6113,7 +6111,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6121,7 +6119,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6129,7 +6127,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6137,7 +6135,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6145,7 +6143,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6153,7 +6151,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6161,7 +6159,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6169,56 +6167,56 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6231,7 +6229,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection activeCell="K17" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6249,78 +6247,78 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6331,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6352,7 +6350,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B2">
         <v>226</v>
@@ -6360,7 +6358,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3">
         <v>104</v>
@@ -6368,7 +6366,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>93</v>
@@ -6376,7 +6374,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>1295</v>
@@ -6384,7 +6382,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6392,7 +6390,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B7">
         <v>127</v>
@@ -6400,7 +6398,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6408,7 +6406,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9">
         <v>99</v>
@@ -6416,7 +6414,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -6424,63 +6422,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +6491,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6512,15 +6510,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -6528,7 +6526,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -6536,7 +6534,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -6544,7 +6542,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6552,7 +6550,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6560,7 +6558,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6568,7 +6566,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6576,48 +6574,48 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6629,8 +6627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6649,7 +6647,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6657,7 +6655,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -6665,7 +6663,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6673,7 +6671,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6681,7 +6679,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6689,7 +6687,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6697,7 +6695,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6705,34 +6703,34 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6765,7 +6763,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -6773,7 +6771,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -6781,7 +6779,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6789,7 +6787,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -6797,7 +6795,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6805,7 +6803,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -6813,7 +6811,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6821,7 +6819,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -6829,7 +6827,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -6837,63 +6835,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6905,8 +6903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6925,202 +6923,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7133,7 +7131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -7331,26 +7331,26 @@
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7380,141 +7380,141 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B14" s="6"/>
     </row>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A26E8-214B-4B05-A02C-6FC79277F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E061F8A-F189-4247-9632-F825157A3D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="10230" windowWidth="28800" windowHeight="15435" tabRatio="922" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -35,9 +35,10 @@
     <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId20"/>
     <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId21"/>
     <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId22"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId23"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId24"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId25"/>
+    <sheet name="Financial Aid_Last pages" sheetId="27" r:id="rId23"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId24"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId25"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="511">
   <si>
     <t>Answer</t>
   </si>
@@ -1534,6 +1535,67 @@
   </si>
   <si>
     <t>The [aggregation][ of students {who graduated in [range] [number] years and [range] [number] years} in the [initial_final] [year] cohort is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>what is your institution’s policy regarding institutional scholarship and grant aid for undergraduate degree-seeking nonresident
+aliens?</t>
+  </si>
+  <si>
+    <t>Institutional non-need-based scholarship or grant aid is available. There are 220 undergraduate degree-seeking nonresident took aid. Average dollar amount is 7,453 dollars, the amount is  1,647,183 dollars</t>
+  </si>
+  <si>
+    <t>What forms nonresident alien first-year financial aid applicants must submit for financial aid?</t>
+  </si>
+  <si>
+    <t>International Student’s Certification of Finances</t>
+  </si>
+  <si>
+    <t>What forms domestic first-year financial aid applicants must submit for financial aid?</t>
+  </si>
+  <si>
+    <t>FAFSA</t>
+  </si>
+  <si>
+    <t>what if the Priority daye for filling required financial-aid forms for  first year students ?</t>
+  </si>
+  <si>
+    <t>Is there any deadline for first year students applying for financial-aid?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority date for filing required financial aid forms: March 10. </t>
+  </si>
+  <si>
+    <t>what is the notificationdate for first-year students apply for financial-aid ?</t>
+  </si>
+  <si>
+    <t>Students notified on or about (date): January 15 (early action) - March 15 (regular decision). Students notified on a rolling basis: No</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>what is the reply date for first-year students?</t>
+  </si>
+  <si>
+    <t>May 1</t>
+  </si>
+  <si>
+    <t>What kinds of financial-aid loan is avaliable to undergraduate students?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Direct Subsidized Stafford Loans, Direct Unsubsidized Stafford Loans, Direct PLUS Loans, Federal Perkins Loans</t>
+  </si>
+  <si>
+    <t>What kinds of financial-aid scholarship or grants is avaliable to undergraduate students?</t>
+  </si>
+  <si>
+    <t>Federal Pell, SEOG, State scholarships/grants, Private scholarships, College/university scholarship or grant aid from institutional funds</t>
+  </si>
+  <si>
+    <t>Please list all the awarding institutional aid.</t>
+  </si>
+  <si>
+    <t>Academics(Non-need, need-based), ROTC (Non-need), Minority Status(Non-need, Need-based), State/District residency(Need-Based)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1605,9 +1667,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1891,14 +1955,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1909,7 +1973,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>463</v>
       </c>
@@ -1917,7 +1981,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>464</v>
       </c>
@@ -1925,7 +1989,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>465</v>
       </c>
@@ -1933,7 +1997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>466</v>
       </c>
@@ -1941,7 +2005,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>467</v>
       </c>
@@ -1949,7 +2013,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>468</v>
       </c>
@@ -1957,7 +2021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>469</v>
       </c>
@@ -1965,7 +2029,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>470</v>
       </c>
@@ -1973,7 +2037,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>471</v>
       </c>
@@ -1981,7 +2045,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>472</v>
       </c>
@@ -1989,7 +2053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>473</v>
       </c>
@@ -1997,7 +2061,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>474</v>
       </c>
@@ -2018,13 +2082,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2040,7 +2104,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2048,7 +2112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -2056,7 +2120,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2072,7 +2136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2080,7 +2144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2088,7 +2152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2096,7 +2160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2104,7 +2168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2176,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2120,7 +2184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>296</v>
       </c>
@@ -2136,19 +2200,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>292</v>
       </c>
@@ -2156,7 +2220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>293</v>
       </c>
@@ -2164,7 +2228,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>297</v>
       </c>
@@ -2172,7 +2236,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>295</v>
       </c>
@@ -2197,13 +2261,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>85</v>
       </c>
@@ -2219,7 +2283,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
@@ -2227,7 +2291,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>91</v>
       </c>
@@ -2235,7 +2299,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>94</v>
       </c>
@@ -2243,7 +2307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
@@ -2251,7 +2315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>99</v>
       </c>
@@ -2259,7 +2323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>296</v>
       </c>
@@ -2267,17 +2331,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>292</v>
       </c>
@@ -2285,7 +2349,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>293</v>
       </c>
@@ -2293,7 +2357,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>297</v>
       </c>
@@ -2301,7 +2365,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
@@ -2322,13 +2386,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2344,7 +2408,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -2352,7 +2416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2360,7 +2424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -2368,7 +2432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -2376,7 +2440,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -2384,7 +2448,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2392,7 +2456,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -2400,7 +2464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -2408,7 +2472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2480,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -2424,7 +2488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2432,7 +2496,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>296</v>
       </c>
@@ -2440,19 +2504,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>292</v>
       </c>
@@ -2460,7 +2524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>293</v>
       </c>
@@ -2468,7 +2532,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>297</v>
       </c>
@@ -2476,7 +2540,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>295</v>
       </c>
@@ -2498,13 +2562,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -2520,7 +2584,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -2528,7 +2592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2536,7 +2600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -2544,7 +2608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -2560,7 +2624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -2568,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2576,7 +2640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -2584,7 +2648,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -2592,7 +2656,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -2600,7 +2664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>296</v>
       </c>
@@ -2608,19 +2672,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>292</v>
       </c>
@@ -2628,7 +2692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>293</v>
       </c>
@@ -2636,7 +2700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -2644,7 +2708,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>295</v>
       </c>
@@ -2666,13 +2730,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>106</v>
       </c>
@@ -2688,7 +2752,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
@@ -2696,7 +2760,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>104</v>
       </c>
@@ -2704,7 +2768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>102</v>
       </c>
@@ -2712,7 +2776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
@@ -2720,7 +2784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
@@ -2728,7 +2792,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>296</v>
       </c>
@@ -2736,17 +2800,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>292</v>
       </c>
@@ -2754,7 +2818,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>293</v>
       </c>
@@ -2762,7 +2826,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>297</v>
       </c>
@@ -2770,7 +2834,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
@@ -2791,14 +2855,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="131" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2809,7 +2873,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>150</v>
       </c>
@@ -2820,7 +2884,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>149</v>
       </c>
@@ -2831,7 +2895,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>157</v>
       </c>
@@ -2839,7 +2903,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>176</v>
       </c>
@@ -2850,7 +2914,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>158</v>
       </c>
@@ -2861,7 +2925,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>159</v>
       </c>
@@ -2872,7 +2936,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>160</v>
       </c>
@@ -2883,7 +2947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>161</v>
       </c>
@@ -2894,7 +2958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>162</v>
       </c>
@@ -2905,7 +2969,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>163</v>
       </c>
@@ -2916,7 +2980,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>164</v>
       </c>
@@ -2927,7 +2991,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>165</v>
       </c>
@@ -2938,7 +3002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>166</v>
       </c>
@@ -2949,7 +3013,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>167</v>
       </c>
@@ -2960,7 +3024,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>168</v>
       </c>
@@ -2971,7 +3035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
@@ -2982,7 +3046,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>188</v>
       </c>
@@ -2993,7 +3057,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
@@ -3004,7 +3068,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
@@ -3015,7 +3079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>171</v>
       </c>
@@ -3026,7 +3090,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -3037,7 +3101,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>296</v>
       </c>
@@ -3045,13 +3109,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>292</v>
       </c>
@@ -3059,7 +3123,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>293</v>
       </c>
@@ -3067,7 +3131,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>297</v>
       </c>
@@ -3075,7 +3139,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>295</v>
       </c>
@@ -3096,13 +3160,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3110,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -3118,7 +3182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>152</v>
       </c>
@@ -3126,7 +3190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>153</v>
       </c>
@@ -3134,7 +3198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>154</v>
       </c>
@@ -3142,7 +3206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>155</v>
       </c>
@@ -3150,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>156</v>
       </c>
@@ -3158,7 +3222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>296</v>
       </c>
@@ -3166,17 +3230,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>292</v>
       </c>
@@ -3184,7 +3248,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>293</v>
       </c>
@@ -3192,7 +3256,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>297</v>
       </c>
@@ -3200,7 +3264,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
@@ -3221,14 +3285,14 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="131.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3239,7 +3303,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
@@ -3250,7 +3314,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -3261,7 +3325,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
@@ -3272,7 +3336,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -3283,7 +3347,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -3294,7 +3358,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>198</v>
       </c>
@@ -3305,7 +3369,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
@@ -3316,7 +3380,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>200</v>
       </c>
@@ -3327,7 +3391,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>211</v>
       </c>
@@ -3338,7 +3402,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
@@ -3349,7 +3413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>213</v>
       </c>
@@ -3360,7 +3424,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>216</v>
       </c>
@@ -3371,7 +3435,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -3382,7 +3446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -3393,7 +3457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -3404,7 +3468,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>219</v>
       </c>
@@ -3415,7 +3479,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>296</v>
       </c>
@@ -3423,13 +3487,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>292</v>
       </c>
@@ -3437,7 +3501,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>293</v>
       </c>
@@ -3445,7 +3509,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>297</v>
       </c>
@@ -3453,7 +3517,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>295</v>
       </c>
@@ -3471,17 +3535,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3492,7 +3556,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
@@ -3503,7 +3567,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
@@ -3514,7 +3578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -3525,7 +3589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -3536,7 +3600,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -3547,7 +3611,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>296</v>
       </c>
@@ -3555,13 +3619,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>292</v>
       </c>
@@ -3569,7 +3633,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>293</v>
       </c>
@@ -3577,7 +3641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>297</v>
       </c>
@@ -3585,7 +3649,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>295</v>
       </c>
@@ -3606,13 +3670,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>357</v>
       </c>
@@ -3628,7 +3692,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>358</v>
       </c>
@@ -3636,7 +3700,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>359</v>
       </c>
@@ -3644,7 +3708,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>360</v>
       </c>
@@ -3652,7 +3716,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>361</v>
       </c>
@@ -3660,7 +3724,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>362</v>
       </c>
@@ -3668,7 +3732,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>363</v>
       </c>
@@ -3676,7 +3740,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>364</v>
       </c>
@@ -3684,7 +3748,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>365</v>
       </c>
@@ -3692,7 +3756,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>366</v>
       </c>
@@ -3700,7 +3764,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>367</v>
       </c>
@@ -3708,7 +3772,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>368</v>
       </c>
@@ -3716,7 +3780,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>431</v>
       </c>
@@ -3724,7 +3788,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>369</v>
       </c>
@@ -3732,7 +3796,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>432</v>
       </c>
@@ -3740,7 +3804,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>370</v>
       </c>
@@ -3748,7 +3812,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>371</v>
       </c>
@@ -3756,7 +3820,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>372</v>
       </c>
@@ -3764,7 +3828,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>373</v>
       </c>
@@ -3772,7 +3836,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>433</v>
       </c>
@@ -3780,7 +3844,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>434</v>
       </c>
@@ -3788,7 +3852,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>435</v>
       </c>
@@ -3796,7 +3860,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>436</v>
       </c>
@@ -3804,7 +3868,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>296</v>
       </c>
@@ -3812,13 +3876,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>292</v>
       </c>
@@ -3826,7 +3890,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>293</v>
       </c>
@@ -3834,7 +3898,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>297</v>
       </c>
@@ -3842,7 +3906,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>295</v>
       </c>
@@ -3864,13 +3928,13 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3878,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -3886,7 +3950,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>300</v>
       </c>
@@ -3894,7 +3958,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>301</v>
       </c>
@@ -3902,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>302</v>
       </c>
@@ -3910,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>303</v>
       </c>
@@ -3918,7 +3982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
@@ -3926,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>305</v>
       </c>
@@ -3934,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>306</v>
       </c>
@@ -3942,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>307</v>
       </c>
@@ -3950,7 +4014,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>308</v>
       </c>
@@ -3958,7 +4022,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>309</v>
       </c>
@@ -3966,7 +4030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>310</v>
       </c>
@@ -3974,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>311</v>
       </c>
@@ -3982,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>312</v>
       </c>
@@ -3990,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>313</v>
       </c>
@@ -3998,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
@@ -4006,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>315</v>
       </c>
@@ -4014,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>316</v>
       </c>
@@ -4022,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
@@ -4030,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>318</v>
       </c>
@@ -4038,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>319</v>
       </c>
@@ -4046,7 +4110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
@@ -4054,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>321</v>
       </c>
@@ -4062,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
@@ -4070,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>323</v>
       </c>
@@ -4078,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>324</v>
       </c>
@@ -4086,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>325</v>
       </c>
@@ -4094,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>326</v>
       </c>
@@ -4102,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>296</v>
       </c>
@@ -4110,12 +4174,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>290</v>
       </c>
@@ -4123,7 +4187,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>292</v>
       </c>
@@ -4131,7 +4195,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>293</v>
       </c>
@@ -4139,7 +4203,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>297</v>
       </c>
@@ -4147,7 +4211,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>295</v>
       </c>
@@ -4169,13 +4233,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4183,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>374</v>
       </c>
@@ -4191,7 +4255,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>375</v>
       </c>
@@ -4199,7 +4263,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>376</v>
       </c>
@@ -4207,7 +4271,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>377</v>
       </c>
@@ -4215,7 +4279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>378</v>
       </c>
@@ -4223,7 +4287,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>379</v>
       </c>
@@ -4231,7 +4295,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>380</v>
       </c>
@@ -4239,7 +4303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>381</v>
       </c>
@@ -4247,7 +4311,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>382</v>
       </c>
@@ -4255,7 +4319,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>383</v>
       </c>
@@ -4263,7 +4327,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>384</v>
       </c>
@@ -4271,7 +4335,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>390</v>
       </c>
@@ -4279,7 +4343,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>386</v>
       </c>
@@ -4287,7 +4351,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>389</v>
       </c>
@@ -4295,7 +4359,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>387</v>
       </c>
@@ -4303,7 +4367,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>388</v>
       </c>
@@ -4324,13 +4388,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4338,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>391</v>
       </c>
@@ -4346,7 +4410,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>392</v>
       </c>
@@ -4354,7 +4418,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>393</v>
       </c>
@@ -4362,7 +4426,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>394</v>
       </c>
@@ -4370,7 +4434,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>395</v>
       </c>
@@ -4378,7 +4442,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>396</v>
       </c>
@@ -4386,7 +4450,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>397</v>
       </c>
@@ -4394,7 +4458,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>398</v>
       </c>
@@ -4402,7 +4466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>399</v>
       </c>
@@ -4410,7 +4474,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>400</v>
       </c>
@@ -4418,7 +4482,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>401</v>
       </c>
@@ -4426,7 +4490,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>385</v>
       </c>
@@ -4434,7 +4498,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>402</v>
       </c>
@@ -4442,7 +4506,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>403</v>
       </c>
@@ -4450,7 +4514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>404</v>
       </c>
@@ -4458,7 +4522,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>405</v>
       </c>
@@ -4476,16 +4540,16 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>406</v>
       </c>
@@ -4501,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>407</v>
       </c>
@@ -4509,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>408</v>
       </c>
@@ -4517,7 +4581,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>409</v>
       </c>
@@ -4525,7 +4589,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>410</v>
       </c>
@@ -4533,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>411</v>
       </c>
@@ -4541,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>412</v>
       </c>
@@ -4549,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>413</v>
       </c>
@@ -4557,7 +4621,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>414</v>
       </c>
@@ -4565,7 +4629,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>415</v>
       </c>
@@ -4573,7 +4637,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>416</v>
       </c>
@@ -4581,7 +4645,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>385</v>
       </c>
@@ -4589,7 +4653,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>417</v>
       </c>
@@ -4597,7 +4661,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>418</v>
       </c>
@@ -4605,7 +4669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>419</v>
       </c>
@@ -4613,7 +4677,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>420</v>
       </c>
@@ -4627,6 +4691,149 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBB2714-3A95-4223-A580-60842101FE71}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54" style="11" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4634,13 +4841,13 @@
       <selection activeCell="A6" sqref="A6:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4648,22 +4855,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>478</v>
       </c>
@@ -4673,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -4681,13 +4888,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4695,42 +4902,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>486</v>
       </c>
@@ -4740,7 +4947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4748,14 +4955,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4766,17 +4973,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>489</v>
       </c>
@@ -4794,13 +5001,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4808,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>328</v>
       </c>
@@ -4816,7 +5023,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>330</v>
       </c>
@@ -4824,7 +5031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>332</v>
       </c>
@@ -4832,7 +5039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>334</v>
       </c>
@@ -4840,7 +5047,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>336</v>
       </c>
@@ -4848,7 +5055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>338</v>
       </c>
@@ -4856,7 +5063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>340</v>
       </c>
@@ -4864,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>342</v>
       </c>
@@ -4872,7 +5079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>344</v>
       </c>
@@ -4880,7 +5087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>296</v>
       </c>
@@ -4888,17 +5095,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>292</v>
       </c>
@@ -4906,7 +5113,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>293</v>
       </c>
@@ -4914,7 +5121,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>297</v>
       </c>
@@ -4922,7 +5129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>295</v>
       </c>
@@ -4930,7 +5137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
@@ -4951,14 +5158,14 @@
       <selection activeCell="A11" sqref="A11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
@@ -4974,7 +5181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
@@ -4982,7 +5189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
@@ -4990,7 +5197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -4998,7 +5205,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>335</v>
       </c>
@@ -5006,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>337</v>
       </c>
@@ -5014,7 +5221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>339</v>
       </c>
@@ -5022,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>341</v>
       </c>
@@ -5030,7 +5237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>343</v>
       </c>
@@ -5038,7 +5245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>296</v>
       </c>
@@ -5046,17 +5253,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>292</v>
       </c>
@@ -5064,7 +5271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>293</v>
       </c>
@@ -5072,7 +5279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>297</v>
       </c>
@@ -5080,7 +5287,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>295</v>
       </c>
@@ -5088,7 +5295,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
@@ -5105,17 +5312,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="78.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5123,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>259</v>
       </c>
@@ -5131,7 +5338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>261</v>
       </c>
@@ -5139,7 +5346,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>263</v>
       </c>
@@ -5147,7 +5354,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>265</v>
       </c>
@@ -5155,7 +5362,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>348</v>
       </c>
@@ -5163,7 +5370,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>267</v>
       </c>
@@ -5171,7 +5378,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>269</v>
       </c>
@@ -5179,7 +5386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>270</v>
       </c>
@@ -5187,7 +5394,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>271</v>
       </c>
@@ -5195,7 +5402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>273</v>
       </c>
@@ -5203,7 +5410,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
@@ -5211,7 +5418,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>277</v>
       </c>
@@ -5219,7 +5426,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>279</v>
       </c>
@@ -5227,7 +5434,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>281</v>
       </c>
@@ -5235,7 +5442,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>283</v>
       </c>
@@ -5243,7 +5450,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>285</v>
       </c>
@@ -5251,7 +5458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>286</v>
       </c>
@@ -5259,7 +5466,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>288</v>
       </c>
@@ -5267,7 +5474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>296</v>
       </c>
@@ -5275,7 +5482,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>291</v>
       </c>
@@ -5283,7 +5490,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>290</v>
       </c>
@@ -5291,7 +5498,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>292</v>
       </c>
@@ -5299,7 +5506,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>293</v>
       </c>
@@ -5307,7 +5514,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>297</v>
       </c>
@@ -5315,7 +5522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>295</v>
       </c>
@@ -5337,13 +5544,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5367,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5375,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5383,7 +5590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5391,7 +5598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5407,7 +5614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5423,7 +5630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5431,7 +5638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -5447,7 +5654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -5455,7 +5662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -5463,7 +5670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -5471,7 +5678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -5479,7 +5686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -5495,7 +5702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -5503,7 +5710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>296</v>
       </c>
@@ -5511,7 +5718,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="388.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>291</v>
       </c>
@@ -5533,12 +5740,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="58.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="58.88671875" style="6"/>
+    <col min="1" max="16384" width="58.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5756,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>236</v>
       </c>
@@ -5560,7 +5767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>238</v>
       </c>
@@ -5571,7 +5778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>240</v>
       </c>
@@ -5582,7 +5789,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>242</v>
       </c>
@@ -5593,7 +5800,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>244</v>
       </c>
@@ -5604,7 +5811,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>246</v>
       </c>
@@ -5615,7 +5822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>248</v>
       </c>
@@ -5626,7 +5833,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>250</v>
       </c>
@@ -5637,7 +5844,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>252</v>
       </c>
@@ -5648,7 +5855,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
@@ -5659,7 +5866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>256</v>
       </c>
@@ -5684,14 +5891,14 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5699,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -5707,7 +5914,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -5715,7 +5922,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -5723,7 +5930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -5731,7 +5938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -5739,7 +5946,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -5747,7 +5954,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -5755,7 +5962,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5763,7 +5970,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -5771,7 +5978,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5779,7 +5986,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5787,7 +5994,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +6002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -5803,7 +6010,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5811,7 +6018,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -5819,7 +6026,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -5827,7 +6034,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -5835,7 +6042,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -5843,7 +6050,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -5851,7 +6058,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -5859,7 +6066,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +6074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -5875,7 +6082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5883,7 +6090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -5891,7 +6098,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -5899,7 +6106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -5907,7 +6114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -5915,7 +6122,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5923,7 +6130,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -5931,7 +6138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -5939,7 +6146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -5947,7 +6154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -5955,7 +6162,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -5963,7 +6170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -5971,7 +6178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5979,7 +6186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -5987,7 +6194,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>296</v>
       </c>
@@ -5995,19 +6202,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>292</v>
       </c>
@@ -6015,7 +6222,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>293</v>
       </c>
@@ -6023,7 +6230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>297</v>
       </c>
@@ -6031,7 +6238,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>295</v>
       </c>
@@ -6053,13 +6260,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6067,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -6075,7 +6282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -6083,7 +6290,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -6091,7 +6298,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -6099,7 +6306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -6107,7 +6314,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -6115,7 +6322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>296</v>
       </c>
@@ -6123,17 +6330,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>292</v>
       </c>
@@ -6141,7 +6348,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>293</v>
       </c>
@@ -6149,7 +6356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>297</v>
       </c>
@@ -6157,7 +6364,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>295</v>
       </c>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0ADEF5-F9DA-4991-B94C-95CCC657018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6AA49-AF07-43BB-B6AA-5FE2CFDADF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -978,55 +978,28 @@
     <t>How many female part-time graduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year nonresident aliens are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate nonresident aliens are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year hispanics are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate hispanics are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year african americans are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate african americans are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year white students are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate white students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate american indians are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year asians are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate asians are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year pacific islanders are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate pacific islanders are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year students of two or more races are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate students of two or more races are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year students of unknown race are enrolled?</t>
   </si>
   <si>
     <t>How many degree-seeking undergraduate students of unknown race are enrolled?</t>
@@ -1493,9 +1466,6 @@
   </si>
   <si>
     <t>Rose-Hulman offers bachelors and masters degree</t>
-  </si>
-  <si>
-    <t>The number of degree-seeking first-time freshman  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">(xor [academic_factor] [non_academic_factor]) is &lt;value&gt; in Rose-Hulman admission decisions </t>
@@ -1705,6 +1675,36 @@
   </si>
   <si>
     <t>What is the minimum college grade point average required for transfer admission?</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time first-year freshman  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman nonresident aliens are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman hispanics are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman african americans are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman white students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman american indians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman asians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman pacific islanders are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman students of two or more races are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year freshman students of unknown race are enrolled?</t>
   </si>
 </sst>
 </file>
@@ -2101,15 +2101,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C5" t="s">
         <v>196</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
         <v>196</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>196</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
         <v>196</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -2385,7 +2385,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B2" s="4">
         <v>350</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B3" s="4">
         <v>296</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -2996,7 +2996,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3242,7 @@
         <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,12 +3306,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>101</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>103</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>109</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -3449,7 +3449,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,7 +3517,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>123</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>124</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>125</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -3581,7 +3581,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3625,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>159</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -3823,7 +3823,7 @@
         <v>164</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
         <v>196</v>
@@ -3834,7 +3834,7 @@
         <v>165</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
         <v>196</v>
@@ -3856,7 +3856,7 @@
         <v>147</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
@@ -3970,7 +3970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>132</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4075,15 +4075,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -4419,7 +4419,7 @@
         <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -4869,170 +4869,170 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5118,12 +5118,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
         <v>196</v>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -5222,10 +5222,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -5233,10 +5233,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -5266,10 +5266,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
         <v>196</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>196</v>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -5370,15 +5370,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -5507,32 +5507,32 @@
     </row>
     <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>196</v>
@@ -5540,10 +5540,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -5623,12 +5623,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>263</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>263</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
         <v>196</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
         <v>196</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C16" t="s">
         <v>196</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6247,15 +6247,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2">
         <v>226</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3">
         <v>104</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B4">
         <v>93</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B5">
         <v>1295</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B7">
         <v>127</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B9">
         <v>99</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -6438,7 +6438,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6475,10 +6475,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6510,15 +6510,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6742,13 +6742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.77734375" customWidth="1"/>
     <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>536</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>537</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>538</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>539</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>540</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>313</v>
+        <v>541</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>542</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>317</v>
+        <v>543</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>544</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -6851,7 +6851,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6888,10 +6888,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>242</v>
@@ -7078,7 +7078,7 @@
         <v>267</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -7086,7 +7086,7 @@
         <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>266</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6AA49-AF07-43BB-B6AA-5FE2CFDADF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC3F10-5A6D-4541-B4EC-C361E1CE9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId29"/>
     <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId30"/>
     <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId31"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="586">
   <si>
     <t>Answer</t>
   </si>
@@ -1705,6 +1706,129 @@
   </si>
   <si>
     <t>How many degree-seeking first-time first-year freshman students of unknown race are enrolled?</t>
+  </si>
+  <si>
+    <t>How many foreign language units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many social studies units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many history units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many academic elective units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many computer science units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many visual/performing art units are required for admission?</t>
+  </si>
+  <si>
+    <t>What other units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many English units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many Mathematics units are required for admission?</t>
+  </si>
+  <si>
+    <t>How many science units are required for admission?</t>
+  </si>
+  <si>
+    <t>Of the previous units, how many lab units required for admission?</t>
+  </si>
+  <si>
+    <t>How many English units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many Mathematics units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many science units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many foreign language units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many social studies units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many history units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many academic elective units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many computer science units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many visual/performing art units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>What other units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>How many Computer and information scienses degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 15.7% bachelor's degrees conferred are Computer and information scienses, CIP is 11</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>How many Engineering degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 73.1% bachelor's degrees conferred are Engineering , CIP is 14</t>
+  </si>
+  <si>
+    <t>How many Biological/life sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 2.2% bachelor's degrees conferred are  Biological/life sciences , CIP is 26</t>
+  </si>
+  <si>
+    <t>How many Mathematics and statistics degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 5.2% bachelor's degrees conferred are Mathematics and statistics, CIP is 27</t>
+  </si>
+  <si>
+    <t>How many Interdisciplinary studies degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 0.7% bachelor's degrees conferred are Interdisciplinary studies, CIP is 30</t>
+  </si>
+  <si>
+    <t>How many Physical sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 3.0% bachelor's degrees conferred are Physical sciences, CIP is 40</t>
+  </si>
+  <si>
+    <t>How many Social sciences degrees are conferred?</t>
+  </si>
+  <si>
+    <t>There are 0.2% bachelor's degrees conferred are Social sciences, CIP is 45</t>
+  </si>
+  <si>
+    <t>Of previous units, how many lab units are recommended for admission?</t>
+  </si>
+  <si>
+    <t>What other units are required for admission? (please specify)</t>
+  </si>
+  <si>
+    <t>No other additional units are required for admission</t>
+  </si>
+  <si>
+    <t>The number of [subject] units required to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The number of [subject] units recommended to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6491,7 +6615,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6738,12 +6862,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6903,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7129,28 +7361,386 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,43 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC3F10-5A6D-4541-B4EC-C361E1CE9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A6E35-A124-4B34-854C-515D9610A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
     <sheet name="Enrollment_General" sheetId="12" r:id="rId2"/>
     <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId3"/>
-    <sheet name="Enrollment_Race Freshman" sheetId="13" r:id="rId4"/>
+    <sheet name="Enrollment_Race First time year" sheetId="13" r:id="rId4"/>
     <sheet name="Cohort" sheetId="10" r:id="rId5"/>
     <sheet name="High School Units_Required" sheetId="29" r:id="rId6"/>
     <sheet name="High School Units_Recommended" sheetId="28" r:id="rId7"/>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId8"/>
     <sheet name="Admission Policies" sheetId="9" r:id="rId9"/>
-    <sheet name="Freshman Profile_SAT Score Comp" sheetId="14" r:id="rId10"/>
-    <sheet name="Freshman Profile_SAT Score Sub " sheetId="3" r:id="rId11"/>
-    <sheet name="Freshman Profile_ACT score comp" sheetId="15" r:id="rId12"/>
-    <sheet name="Freshman Profile_ACT Score sub" sheetId="11" r:id="rId13"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId14"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId15"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId16"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId17"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId18"/>
-    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId19"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId20"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId21"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId22"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId23"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId24"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId25"/>
-    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId26"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId27"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId30"/>
-    <sheet name="Faculy And Class Size_Subsectio" sheetId="32" r:id="rId31"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId32"/>
+    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId10"/>
+    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId11"/>
+    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId12"/>
+    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId13"/>
+    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId14"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId15"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId16"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId17"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId18"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId19"/>
+    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId20"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId21"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId22"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId23"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId24"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId25"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId26"/>
+    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId27"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId31"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId32"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="591">
   <si>
     <t>Answer</t>
   </si>
@@ -1402,9 +1403,6 @@
     <t>What is the number of degree-seeking full-time full-time freshman students who applied for need-based financial aid</t>
   </si>
   <si>
-    <t>The (xor [percentile] [aggregation]) score for [standarized_test] [subject] is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>What special study programs are offered at Rose-Hulman?</t>
   </si>
   <si>
@@ -1478,9 +1476,6 @@
     <t xml:space="preserve">The percentage of freshman students with sat (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of freshman students with act composite (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
   </si>
   <si>
@@ -1545,9 +1540,6 @@
   </si>
   <si>
     <t>What is the percentage of freshman students who submitted high school class rank?</t>
-  </si>
-  <si>
-    <t>(xor {The percentage of freshman students with gpa (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt;}</t>
   </si>
   <si>
     <t xml:space="preserve"> The average high school gpa for freshman student who submitted gpa is 4.02</t>
@@ -1678,36 +1670,6 @@
     <t>What is the minimum college grade point average required for transfer admission?</t>
   </si>
   <si>
-    <t>The number of degree-seeking first-time first-year freshman  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman nonresident aliens are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman hispanics are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman african americans are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman white students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman american indians are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman asians are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman pacific islanders are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman students of two or more races are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year freshman students of unknown race are enrolled?</t>
-  </si>
-  <si>
     <t>How many foreign language units are required for admission?</t>
   </si>
   <si>
@@ -1829,6 +1791,60 @@
   </si>
   <si>
     <t>The number of [subject] units recommended to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year nonresident aliens are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year hispanics are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year african americans are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year white students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year asians are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year pacific islanders are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year students of two or more races are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year students of unknown race are enrolled?</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time first-year  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with act composite score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The (xor [aggregation] [percentile]) score [standarized_test] [subject] for freshmen is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>The (xor number [*percentage]) of freshman students who submitted [standarized_test] score is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>The percentage of freshman students with gpa (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2249,7 @@
         <v>419</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -2241,10 +2257,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -2255,7 +2271,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
@@ -2266,7 +2282,7 @@
         <v>420</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
         <v>196</v>
@@ -2277,7 +2293,7 @@
         <v>422</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
@@ -2288,7 +2304,7 @@
         <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
         <v>196</v>
@@ -2299,7 +2315,7 @@
         <v>424</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>196</v>
@@ -2307,10 +2323,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C9" t="s">
         <v>196</v>
@@ -2321,7 +2337,7 @@
         <v>425</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -2332,7 +2348,7 @@
         <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -2343,7 +2359,7 @@
         <v>427</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -2354,7 +2370,7 @@
         <v>428</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -2365,7 +2381,7 @@
         <v>429</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -2426,7 +2442,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,7 +2525,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2554,7 +2570,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2702,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2735,7 +2751,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2813,12 +2829,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2876,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2995,18 +3011,21 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3022,7 +3041,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -3037,367 +3056,109 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="68.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" s="4">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
+      <c r="A5" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1270</v>
+      <c r="A6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>650</v>
+      <c r="A7" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>316</v>
+      <c r="A9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1355</v>
+      <c r="A10" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4">
-        <v>650</v>
+      <c r="A11" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B12" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3408,11 +3169,350 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3435,7 +3535,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3446,7 +3546,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
@@ -3457,7 +3557,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
@@ -3468,7 +3568,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>101</v>
@@ -3479,7 +3579,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -3490,7 +3590,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>103</v>
@@ -3501,7 +3601,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
@@ -3512,7 +3612,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
@@ -3523,7 +3623,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>109</v>
@@ -3534,10 +3634,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -3545,10 +3645,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -3573,7 +3673,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3617,7 +3717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3641,7 +3741,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -3649,7 +3749,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>123</v>
@@ -3657,7 +3757,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>124</v>
@@ -3665,7 +3765,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>125</v>
@@ -3673,7 +3773,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -3681,7 +3781,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -3705,7 +3805,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3745,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -3878,7 +3978,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>159</v>
@@ -3889,7 +3989,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>318</v>
@@ -4048,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4136,7 +4236,7 @@
         <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4173,109 +4273,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4543,7 +4540,7 @@
         <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4585,6 +4582,109 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -4837,7 +4937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4969,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5065,7 +5165,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>387</v>
@@ -5073,7 +5173,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>388</v>
@@ -5081,7 +5181,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>389</v>
@@ -5089,7 +5189,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>381</v>
@@ -5097,7 +5197,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>381</v>
@@ -5105,7 +5205,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>381</v>
@@ -5178,7 +5278,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5471,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5620,7 +5720,7 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>410</v>
@@ -5724,7 +5824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5977,12 +6077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6001,7 +6101,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -6009,7 +6109,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6017,7 +6117,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -6025,7 +6125,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6050,7 +6150,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6087,15 +6187,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6163,7 +6264,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6203,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -6308,7 +6409,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6348,7 +6449,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6376,10 +6637,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6390,7 +6651,7 @@
         <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -6450,167 +6711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -6634,15 +6735,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -6650,7 +6751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -6658,7 +6759,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -6666,7 +6767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6674,7 +6775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6682,7 +6783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6690,7 +6791,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6747,12 +6848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6771,7 +6872,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6779,7 +6880,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -6787,7 +6888,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -6795,7 +6896,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6803,7 +6904,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6811,7 +6912,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6819,7 +6920,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6862,7 +6963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6890,79 +6991,79 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6975,7 +7076,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6995,7 +7096,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -7003,7 +7104,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -7011,7 +7112,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7019,7 +7120,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -7027,7 +7128,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7035,7 +7136,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -7043,7 +7144,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7051,7 +7152,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -7059,7 +7160,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7083,7 +7184,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7115,7 +7216,7 @@
         <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7135,8 +7236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7318,7 +7419,7 @@
         <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7363,7 +7464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7382,12 +7483,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -7398,7 +7499,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -7409,7 +7510,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -7420,7 +7521,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -7431,7 +7532,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -7442,7 +7543,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -7453,7 +7554,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -7464,7 +7565,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -7475,7 +7576,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -7486,7 +7587,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -7497,7 +7598,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -7508,10 +7609,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -7535,7 +7636,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7600,7 +7701,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7608,7 +7709,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -7616,7 +7717,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -7624,7 +7725,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7632,7 +7733,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7640,7 +7741,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7648,7 +7749,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7656,7 +7757,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -7664,7 +7765,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7672,7 +7773,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7680,7 +7781,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7705,7 +7806,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7940,7 +8041,7 @@
         <v>266</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A6E35-A124-4B34-854C-515D9610A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286ABCC5-9B72-43DB-B980-26A9BA6449A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="20" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -35,17 +35,18 @@
     <sheet name="Academic Offering Policy" sheetId="27" r:id="rId20"/>
     <sheet name="Student Life_Categories" sheetId="7" r:id="rId21"/>
     <sheet name="Student Life_Offered" sheetId="8" r:id="rId22"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId23"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId24"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId25"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId26"/>
-    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId27"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId30"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId31"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId32"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId33"/>
+    <sheet name="Annual Expense" sheetId="35" r:id="rId23"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId24"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId25"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId26"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId27"/>
+    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId31"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId32"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId33"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="624">
   <si>
     <t>Answer</t>
   </si>
@@ -1845,6 +1846,105 @@
   </si>
   <si>
     <t>The percentage of freshman students with gpa (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What is the URL of your institution's Net price calculator?</t>
+  </si>
+  <si>
+    <t>The Url of Rose-Hulman institution's net price calculator is : https://prod11gbss8.rose-hulman.edu/BanSS/RHIT_NPCALC.P_Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>What is the approximate date of the academic year tuition fee cost releaseing?</t>
+  </si>
+  <si>
+    <t>April 1</t>
+  </si>
+  <si>
+    <t>What is the first year private institution tuition fee cost for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$49,479</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>What is the required fee for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$1,035</t>
+  </si>
+  <si>
+    <t>What is the Room and board fee for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$15,690</t>
+  </si>
+  <si>
+    <t>What is the Room fee only for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$9,441</t>
+  </si>
+  <si>
+    <t>What is the board fee only for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>$6,249</t>
+  </si>
+  <si>
+    <t>Is there any other fee cost for first-year or undergraduate students?</t>
+  </si>
+  <si>
+    <t>Yes, Freshman Laptop $2,400 (First Fall Term for freshman only)</t>
+  </si>
+  <si>
+    <t>What is the number of credits a student can take for the stated full-time tuition</t>
+  </si>
+  <si>
+    <t>From 12 to 18</t>
+  </si>
+  <si>
+    <t>Does tuition and fee change by year of study?</t>
+  </si>
+  <si>
+    <t>Do tuition and fees changes by undergraduate instructional program?</t>
+  </si>
+  <si>
+    <t>What is the cost of book and supplies for residents?</t>
+  </si>
+  <si>
+    <t>What is the cost of book and supplies for Commuters?</t>
+  </si>
+  <si>
+    <t>What is the cost of room only for Commuters?</t>
+  </si>
+  <si>
+    <t>For commuters not living at home is $9,441</t>
+  </si>
+  <si>
+    <t>What is the cost of board only for Commuters?</t>
+  </si>
+  <si>
+    <t>For commuters  living at home is $900,and for commuters not living at home is $6,249</t>
+  </si>
+  <si>
+    <t>how much is other cost for residents?</t>
+  </si>
+  <si>
+    <t>$1,557</t>
+  </si>
+  <si>
+    <t>how much is other cost for commuters?</t>
+  </si>
+  <si>
+    <t>How much does a credit cost?</t>
+  </si>
+  <si>
+    <t>per-credit-hour charges $1,444</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1937,6 +2037,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3511,7 +3614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5070,6 +5173,231 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5319,7 +5647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5571,7 +5899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5824,7 +6152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6077,7 +6405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -6191,7 +6519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -6296,151 +6624,6 @@
         <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6610,6 +6793,151 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6711,12 +7039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6848,7 +7176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -6963,12 +7291,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDD8596-9AC9-4A8C-8367-519053A49505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B093560-F048-44D0-B284-D417613190DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1471,15 +1471,6 @@
     <t xml:space="preserve">(xor [academic_factor] [non_academic_factor]) is &lt;value&gt; in Rose-Hulman admission decisions </t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of freshman students with sat composite score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The percentage of freshman students with sat (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
     <t>How many freshman student submitted ACT</t>
   </si>
   <si>
@@ -1492,9 +1483,6 @@
     <t>What is the percent of freshman students submitting ACT</t>
   </si>
   <si>
-    <t>What is the percentage of freshman students with gpa between 4.00?</t>
-  </si>
-  <si>
     <t>What is the percentage of freshman students with gpa between 3.75 and 3.99?</t>
   </si>
   <si>
@@ -1547,9 +1535,6 @@
   </si>
   <si>
     <t>The percentage of freshman students who submitted gpa is 94.9 % (504/531)</t>
-  </si>
-  <si>
-    <t>The percentage of freshman students in the [class_rank] of their high school graduating class is &lt;value?</t>
   </si>
   <si>
     <t>What is the average need-based loan for students who were awarded any need-based self-help aid?</t>
@@ -1827,27 +1812,15 @@
     <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of freshman students with act composite score (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>The (xor [aggregation] [percentile]) score [standarized_test] [subject] for freshmen is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>296</t>
   </si>
   <si>
-    <t>The (xor number [*percentage]) of freshman students who submitted [standarized_test] score is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t>The percentage of freshman students with gpa (xor {[range] [number] and [number]} {[range] [number]}) is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>What is the URL of your institution's Net price calculator?</t>
   </si>
   <si>
@@ -1945,6 +1918,33 @@
   </si>
   <si>
     <t>per-credit-hour charges $1,444</t>
+  </si>
+  <si>
+    <t>The (xor number [^*percentage]) of freshman students who submitted [standarized_test] score is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>The (xor [^aggregation] [^percentile]) score [standarized_test] [subject] for freshmen is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The percentage of freshman students with gpa (xor {[^range] [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The percentage of freshman students in the [class_rank] of their high school graduating class is &lt;value&gt;?</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with gpa within 4.00?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with act composite score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with sat (xor [test_component] [subject]) score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of freshman students with sat composite score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2037,9 +2037,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2544,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2628,7 +2625,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>466</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2672,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,7 +2802,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>467</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2854,7 +2851,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2937,7 +2934,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2982,7 +2979,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3114,7 +3111,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>468</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3125,7 +3122,7 @@
         <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,7 +3160,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>60</v>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>61</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -3206,10 +3203,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3230,7 +3227,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3275,14 +3272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="74.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="85.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3435,7 +3432,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3569,7 +3566,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3612,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>620</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>99</v>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>101</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>103</v>
@@ -3704,7 +3701,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
@@ -3715,7 +3712,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>109</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -3748,10 +3745,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -3776,7 +3773,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3825,7 +3822,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,7 +3841,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>123</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>124</v>
@@ -3868,7 +3865,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>125</v>
@@ -3876,7 +3873,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -3884,7 +3881,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -3908,7 +3905,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>492</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4078,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>159</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>318</v>
@@ -4643,7 +4640,7 @@
         <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,201 +5192,201 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C5" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="C6" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="C7" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C8" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C9" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C10" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="B11" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B12" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B13" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C15" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C16" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="C17" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B18" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="13">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B14" s="13">
-        <v>1500</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>593</v>
+      <c r="C19" s="5" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5490,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>387</v>
@@ -5501,7 +5498,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>388</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>389</v>
@@ -5517,7 +5514,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>381</v>
@@ -5525,7 +5522,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>381</v>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>381</v>
@@ -5606,7 +5603,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6048,7 +6045,7 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>410</v>
@@ -6156,7 +6153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6429,7 +6426,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -6437,7 +6434,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6445,7 +6442,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -6453,7 +6450,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6478,7 +6475,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6592,7 +6589,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6744,7 +6741,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6784,7 +6781,7 @@
         <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +6894,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,10 +6962,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6979,7 +6976,7 @@
         <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -7063,15 +7060,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -7079,7 +7076,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -7095,7 +7092,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -7103,7 +7100,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7111,7 +7108,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7119,7 +7116,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7200,7 +7197,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -7208,7 +7205,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -7216,7 +7213,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7224,7 +7221,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7232,7 +7229,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7240,7 +7237,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7248,7 +7245,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7319,79 +7316,79 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7424,7 +7421,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -7432,7 +7429,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7448,7 +7445,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -7456,7 +7453,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7464,7 +7461,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -7472,7 +7469,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7480,7 +7477,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -7488,7 +7485,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7512,7 +7509,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7747,7 +7744,7 @@
         <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7816,7 +7813,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -7827,7 +7824,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -7838,7 +7835,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -7849,7 +7846,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -7860,7 +7857,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -7871,7 +7868,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -7882,7 +7879,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -7915,7 +7912,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -7926,7 +7923,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -7937,10 +7934,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -7964,7 +7961,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8029,7 +8026,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8037,7 +8034,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -8045,7 +8042,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -8053,7 +8050,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8061,7 +8058,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8069,7 +8066,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8077,7 +8074,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -8093,7 +8090,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8101,7 +8098,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8134,7 +8131,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDSQuestionAnswer_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B093560-F048-44D0-B284-D417613190DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA16C93-30BB-4F6D-B41B-C7756B3C207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13332" yWindow="8256" windowWidth="7632" windowHeight="3696" tabRatio="922" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -40,13 +40,14 @@
     <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId25"/>
     <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId26"/>
     <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId27"/>
-    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId30"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId31"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId32"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId33"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId34"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId28"/>
+    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId31"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId32"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId33"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId34"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="644">
   <si>
     <t>Answer</t>
   </si>
@@ -1830,15 +1831,6 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t>What is the approximate date of the academic year tuition fee cost releaseing?</t>
-  </si>
-  <si>
-    <t>April 1</t>
-  </si>
-  <si>
-    <t>What is the first year private institution tuition fee cost for first-year or undergraduate students?</t>
-  </si>
-  <si>
     <t>$49,479</t>
   </si>
   <si>
@@ -1872,9 +1864,6 @@
     <t>Is there any other fee cost for first-year or undergraduate students?</t>
   </si>
   <si>
-    <t>Yes, Freshman Laptop $2,400 (First Fall Term for freshman only)</t>
-  </si>
-  <si>
     <t>What is the number of credits a student can take for the stated full-time tuition</t>
   </si>
   <si>
@@ -1945,6 +1934,79 @@
   </si>
   <si>
     <t xml:space="preserve">The percentage of freshman students with sat composite score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>what is your institution’s policy regarding institutional scholarship and grant aid for undergraduate degree-seeking nonresident
+aliens?</t>
+  </si>
+  <si>
+    <t>Institutional non-need-based scholarship or grant aid is available. There are 220 undergraduate degree-seeking nonresident took aid. Average dollar amount is 7,453 dollars, the amount is  1,647,183 dollars</t>
+  </si>
+  <si>
+    <t>What forms nonresident alien first-year financial aid applicants must submit for financial aid?</t>
+  </si>
+  <si>
+    <t>What forms domestic first-year financial aid applicants must submit for financial aid?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority date for filing required financial aid forms: March 10. </t>
+  </si>
+  <si>
+    <t>what is the notificationdate for first-year students apply for financial-aid ?</t>
+  </si>
+  <si>
+    <t>Students notified on or about (date): January 15 (early action) - March 15 (regular decision). Students notified on a rolling basis: No</t>
+  </si>
+  <si>
+    <t>what is the reply date for first-year students?</t>
+  </si>
+  <si>
+    <t>What kinds of financial-aid loan is avaliable to undergraduate students?</t>
+  </si>
+  <si>
+    <t>What kinds of financial-aid scholarship or grants is avaliable to undergraduate students?</t>
+  </si>
+  <si>
+    <t>Please list all critieria used in awarding institutional aid.</t>
+  </si>
+  <si>
+    <t>First-year financial aid applicants who are Nonresident Aliens must submit International Student’s Certification of Finances</t>
+  </si>
+  <si>
+    <t>The financial aid forms domestic first-year (freshman) financial aid applicants must submit is FAFSA</t>
+  </si>
+  <si>
+    <t>what if the Priority date for filling out required financial-aid forms for first-year students?</t>
+  </si>
+  <si>
+    <t>Is there any deadline for first year students filing out required financial-aid forms</t>
+  </si>
+  <si>
+    <t>There is no deadline for filing the required financial-aid form for first-year students. (Applications are processed on a rolling basis)</t>
+  </si>
+  <si>
+    <t>Students must reply by May 1 after receiving their financial aid award letter.</t>
+  </si>
+  <si>
+    <t>The criteria used in awarding institutional aid include the following: Academics(Non-need, need-based), ROTC (Non-need), Minority Status(Non-need, Need-based), State/District residency(Need-Based)</t>
+  </si>
+  <si>
+    <t>Financial aid scholarship or grants available to undergraduate students include the following: Federal Pell, SEOG, State scholarships/grants, Private scholarships, College/university scholarship or grant aid from institutional funds</t>
+  </si>
+  <si>
+    <t>The type of financial-aid loan available to undergraduate students include: Direct Subsidized Stafford Loans, Direct Unsubsidized Stafford Loans, Direct PLUS Loans, and Federal Perkins Loans</t>
+  </si>
+  <si>
+    <t>Other fee cost for undergraduate student includes: Freshman Laptop $2,400 (First Fall Term for freshman only)</t>
+  </si>
+  <si>
+    <t>What is the approximate date of the academic year tuition fee cost releasing?</t>
+  </si>
+  <si>
+    <t>What is the Rose-Hulman's tuition for first-year students?</t>
+  </si>
+  <si>
+    <t>What is Rose-Hulman's tuition for undergraduate students?</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,7 +2687,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2864,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2934,7 +2996,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3111,7 +3173,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3227,7 +3289,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3566,7 +3628,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,7 +3697,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3773,7 +3835,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,7 +3967,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +4348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>131</v>
       </c>
@@ -5171,23 +5233,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5195,7 +5257,7 @@
       <c r="A2" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>583</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -5204,193 +5266,200 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>586</v>
+        <v>641</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>589</v>
+        <v>596</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>589</v>
+        <v>598</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B13" s="5">
+        <v>599</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B14" s="6">
         <v>1500</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1500</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>611</v>
+        <v>606</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>584</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -6230,7 +6299,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>370</v>
       </c>
@@ -6263,7 +6332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>373</v>
       </c>
@@ -6403,6 +6472,147 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -6513,119 +6723,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>273</v>
-      </c>
-   